--- a/data_processing_elements-CHS.xlsx
+++ b/data_processing_elements-CHS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ca058780ebd4867/ProPASS/dpe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{EAFA0F5D-D41C-4C73-B15F-460B5AC822F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2E5DE07-6D0D-4B9E-82D0-D163FCFD7661}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CADF4E-F02E-45A4-BF65-F76DAD75A65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1392" windowWidth="23256" windowHeight="12456" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="421">
   <si>
     <t>index</t>
   </si>
@@ -636,9 +636,6 @@
   <si>
     <t>0 = No ; 
 1 = Yes</t>
-  </si>
-  <si>
-    <t>undetermined</t>
   </si>
   <si>
     <t>dis_musculoskeletal</t>
@@ -973,9 +970,6 @@
     <t>items</t>
   </si>
   <si>
-    <t>Please confirm the date format</t>
-  </si>
-  <si>
     <t>Friedewald equation was used https://lipidworld.biomedcentral.com/articles/10.1186/1476-511X-9-27</t>
   </si>
   <si>
@@ -1014,9 +1008,6 @@
 birth month;
 birth day;
 examination date</t>
-  </si>
-  <si>
-    <t>Please confirm the completion date format</t>
   </si>
   <si>
     <t>Sub76</t>
@@ -1041,12 +1032,6 @@
 4=university degree</t>
   </si>
   <si>
-    <t>recode(0=0; 1=0; 2=2; 3=1; 4=3; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>Please confirm/adjust/comment the recoding, we are not 100% sure to understand how the education system translate to the categories desired for harmonization. Can you provide us with more information regarding what is the vocational school?</t>
-  </si>
-  <si>
     <t>V3</t>
   </si>
   <si>
@@ -1143,18 +1128,12 @@
     <t>left arm systolic blood pressure</t>
   </si>
   <si>
-    <t>rowMeans(select(., V21_1, V21_2, V21_3), na.rm=TRUE)</t>
-  </si>
-  <si>
     <t>V22_1;
 V22_2;
 V22_3</t>
   </si>
   <si>
     <t>left arm diastolic blood pressure</t>
-  </si>
-  <si>
-    <t>rowMeans(select(., V22_1, V22_2, V22_3), na.rm=TRUE)</t>
   </si>
   <si>
     <t>V2</t>
@@ -1278,10 +1257,6 @@
 Glass of 121/2 cl;
 Glass of 8 cl;
 Genst. á 4 cl;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please confirm the units for each type of alcohol. It was different in the questionnaire and the data dictionary. 
-</t>
   </si>
   <si>
     <t>Sub59n_1;
@@ -1548,12 +1523,33 @@
 3=light physical activity &gt;4 hours/week or strenouos physical activity for 2-4 hours/week, 
 4=strenouos physical activity &gt;4 hours/week or hard physical activity several times per week</t>
   </si>
+  <si>
+    <t>floor(as.numeric(difftime(format(as.Date(us, format = "%d%m%y"), "%Y-%m-%d"), as.Date(paste0(Faar, "-", Fmd, "-", Fdag), format = "%Y-%m-%d"), units = "days"))/365.25)</t>
+  </si>
+  <si>
+    <t>(Sub59n_2 + Sub59o_2 + Sub59p_2 + Sub59q_2 + Sub59r_2)*7*12</t>
+  </si>
+  <si>
+    <t>as.Date(as.character(us), format = "%d%m%y")</t>
+  </si>
+  <si>
+    <t>recode(0=0; 1=NA; 2=NA; 3=3; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>round(rowMeans(select(., V21_1, V21_2, V21_3), na.rm=TRUE), 2)</t>
+  </si>
+  <si>
+    <t>round(rowMeans(select(., V22_1, V22_2, V22_3), na.rm=TRUE), 2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1587,8 +1583,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1619,8 +1621,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1628,11 +1636,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1673,6 +1696,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2017,10 +2059,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -2135,10 +2177,10 @@
       <c r="H2" s="3"/>
       <c r="I2" s="9"/>
       <c r="J2" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="9"/>
@@ -2153,7 +2195,7 @@
         <v>27</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -2163,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>28</v>
@@ -2183,31 +2225,35 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="9"/>
       <c r="N3" s="3"/>
       <c r="P3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="15" t="s">
-        <v>288</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>34</v>
@@ -2227,14 +2273,14 @@
         <v>38</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N4" s="3"/>
       <c r="P4" s="2" t="s">
@@ -2247,17 +2293,17 @@
         <v>39</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>40</v>
@@ -2277,23 +2323,27 @@
       <c r="H5" s="3"/>
       <c r="I5" s="9"/>
       <c r="J5" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="9"/>
       <c r="N5" s="3"/>
-      <c r="P5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="15" t="s">
-        <v>300</v>
-      </c>
+      <c r="P5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" ht="63.75" x14ac:dyDescent="0.25">
@@ -2301,7 +2351,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>45</v>
@@ -2321,16 +2371,16 @@
         <v>48</v>
       </c>
       <c r="J6" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>304</v>
       </c>
       <c r="N6" s="3"/>
       <c r="P6" s="2" t="s">
@@ -2343,11 +2393,9 @@
         <v>39</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>306</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" ht="127.5" x14ac:dyDescent="0.25">
@@ -2355,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>50</v>
@@ -2375,22 +2423,30 @@
         <v>53</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="N7" s="3"/>
       <c r="P7" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q7" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="T7" s="15" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="U7" s="3"/>
     </row>
@@ -2399,7 +2455,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>55</v>
@@ -2426,13 +2482,19 @@
       <c r="M8" s="9"/>
       <c r="N8" s="3"/>
       <c r="P8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="T8" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="U8" s="3"/>
     </row>
@@ -2441,7 +2503,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>61</v>
@@ -2487,7 +2549,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>65</v>
@@ -2531,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>69</v>
@@ -2568,7 +2630,7 @@
         <v>59</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="U11" s="3"/>
     </row>
@@ -2577,7 +2639,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>72</v>
@@ -2623,7 +2685,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>76</v>
@@ -2643,14 +2705,14 @@
         <v>79</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>59</v>
@@ -2672,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>80</v>
@@ -2692,14 +2754,14 @@
         <v>83</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>25</v>
@@ -2711,7 +2773,7 @@
         <v>39</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -2721,7 +2783,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>84</v>
@@ -2748,19 +2810,19 @@
       <c r="M15" s="9"/>
       <c r="N15" s="3"/>
       <c r="P15" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>59</v>
+        <v>418</v>
+      </c>
+      <c r="S15" s="3">
+        <v>2</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="U15" s="3"/>
     </row>
@@ -2769,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>87</v>
@@ -2789,13 +2851,13 @@
       <c r="H16" s="3"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="3" t="s">
@@ -2821,7 +2883,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>90</v>
@@ -2841,13 +2903,13 @@
         <v>92</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="3" t="s">
@@ -2863,10 +2925,10 @@
         <v>33</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="U17" s="3"/>
     </row>
@@ -2875,7 +2937,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>93</v>
@@ -2895,13 +2957,13 @@
       <c r="H18" s="3"/>
       <c r="I18" s="9"/>
       <c r="J18" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="3" t="s">
@@ -2927,7 +2989,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>96</v>
@@ -2947,13 +3009,13 @@
         <v>92</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="3" t="s">
@@ -2969,10 +3031,10 @@
         <v>33</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="U19" s="3"/>
     </row>
@@ -2981,7 +3043,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>98</v>
@@ -3001,10 +3063,10 @@
       <c r="H20" s="3"/>
       <c r="I20" s="9"/>
       <c r="J20" s="12" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="9"/>
@@ -3031,7 +3093,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>101</v>
@@ -3051,13 +3113,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="9"/>
       <c r="J21" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="3" t="s">
@@ -3083,7 +3145,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>104</v>
@@ -3103,13 +3165,13 @@
         <v>92</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="3" t="s">
@@ -3125,7 +3187,7 @@
         <v>33</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -3135,7 +3197,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>106</v>
@@ -3181,7 +3243,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>109</v>
@@ -3225,7 +3287,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>111</v>
@@ -3245,13 +3307,13 @@
       <c r="H25" s="3"/>
       <c r="I25" s="9"/>
       <c r="J25" s="12" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="3" t="s">
@@ -3270,7 +3332,7 @@
         <v>33</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>335</v>
+        <v>419</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -3280,7 +3342,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>115</v>
@@ -3300,13 +3362,13 @@
       <c r="H26" s="3"/>
       <c r="I26" s="9"/>
       <c r="J26" s="12" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="3" t="s">
@@ -3325,7 +3387,7 @@
         <v>33</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -3335,7 +3397,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>118</v>
@@ -3381,7 +3443,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>121</v>
@@ -3427,7 +3489,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>124</v>
@@ -3447,16 +3509,16 @@
         <v>126</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N29" s="3"/>
       <c r="P29" s="2" t="s">
@@ -3469,7 +3531,7 @@
         <v>39</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -3479,7 +3541,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>127</v>
@@ -3499,22 +3561,28 @@
       <c r="H30" s="3"/>
       <c r="I30" s="9"/>
       <c r="J30" s="12" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="9"/>
       <c r="N30" s="3"/>
       <c r="P30" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="T30" s="15" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="U30" s="3"/>
     </row>
@@ -3523,7 +3591,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>130</v>
@@ -3569,7 +3637,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>133</v>
@@ -3589,15 +3657,15 @@
       <c r="H32" s="3"/>
       <c r="I32" s="9"/>
       <c r="J32" s="12" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="9"/>
       <c r="N32" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>25</v>
@@ -3619,7 +3687,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>136</v>
@@ -3639,10 +3707,10 @@
       <c r="H33" s="3"/>
       <c r="I33" s="9"/>
       <c r="J33" s="12" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="9"/>
@@ -3660,7 +3728,7 @@
         <v>44</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="U33" s="3"/>
     </row>
@@ -3669,7 +3737,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>138</v>
@@ -3689,15 +3757,15 @@
       <c r="H34" s="3"/>
       <c r="I34" s="9"/>
       <c r="J34" s="12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="9"/>
       <c r="N34" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>25</v>
@@ -3719,7 +3787,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>140</v>
@@ -3739,18 +3807,18 @@
       <c r="H35" s="3"/>
       <c r="I35" s="9"/>
       <c r="J35" s="12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="9"/>
       <c r="N35" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>25</v>
@@ -3762,7 +3830,7 @@
         <v>33</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -3772,7 +3840,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>142</v>
@@ -3792,15 +3860,15 @@
       <c r="H36" s="3"/>
       <c r="I36" s="9"/>
       <c r="J36" s="12" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="9"/>
       <c r="N36" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>25</v>
@@ -3822,7 +3890,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>144</v>
@@ -3842,15 +3910,15 @@
       <c r="H37" s="3"/>
       <c r="I37" s="9"/>
       <c r="J37" s="12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="9"/>
       <c r="N37" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>25</v>
@@ -3872,7 +3940,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>147</v>
@@ -3918,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>152</v>
@@ -3938,14 +4006,14 @@
         <v>155</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="N39" s="3"/>
       <c r="P39" s="2" t="s">
@@ -3958,7 +4026,7 @@
         <v>39</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
@@ -3968,7 +4036,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>156</v>
@@ -4014,7 +4082,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>159</v>
@@ -4034,14 +4102,14 @@
         <v>155</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="N41" s="3"/>
       <c r="P41" s="2" t="s">
@@ -4054,17 +4122,17 @@
         <v>39</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>162</v>
@@ -4105,12 +4173,12 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
     </row>
-    <row r="43" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>165</v>
@@ -4130,31 +4198,35 @@
       <c r="H43" s="3"/>
       <c r="I43" s="9"/>
       <c r="J43" s="12" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="9" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="N43" s="3"/>
-      <c r="P43" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="15" t="s">
-        <v>371</v>
-      </c>
+      <c r="P43" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="R43" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="S43" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="T43" s="22"/>
       <c r="U43" s="3"/>
     </row>
-    <row r="44" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="370.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>169</v>
@@ -4174,14 +4246,14 @@
         <v>171</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="N44" s="3"/>
       <c r="P44" s="2" t="s">
@@ -4191,20 +4263,20 @@
         <v>49</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>375</v>
+        <v>204</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
     </row>
-    <row r="45" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="114" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>172</v>
@@ -4224,14 +4296,14 @@
         <v>175</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N45" s="3"/>
       <c r="P45" s="2" t="s">
@@ -4241,10 +4313,10 @@
         <v>49</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>379</v>
+        <v>204</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>371</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -4254,7 +4326,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>176</v>
@@ -4274,14 +4346,14 @@
         <v>178</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -4304,7 +4376,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>179</v>
@@ -4324,11 +4396,11 @@
       <c r="H47" s="3"/>
       <c r="I47" s="9"/>
       <c r="J47" s="12" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="3"/>
@@ -4342,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
@@ -4352,7 +4424,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>182</v>
@@ -4393,12 +4465,12 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
-    <row r="49" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="114" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>185</v>
@@ -4418,14 +4490,14 @@
         <v>188</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N49" s="3"/>
       <c r="P49" s="2" t="s">
@@ -4435,29 +4507,29 @@
         <v>49</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>385</v>
+        <v>204</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
     </row>
-    <row r="50" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>37</v>
@@ -4468,14 +4540,14 @@
         <v>188</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N50" s="3"/>
       <c r="P50" s="2" t="s">
@@ -4485,10 +4557,10 @@
         <v>49</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>388</v>
+        <v>204</v>
+      </c>
+      <c r="S50" s="12" t="s">
+        <v>380</v>
       </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -4498,16 +4570,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="E51" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>37</v>
@@ -4518,18 +4590,18 @@
         <v>188</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>25</v>
@@ -4541,7 +4613,7 @@
         <v>39</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -4551,16 +4623,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="E52" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>37</v>
@@ -4568,7 +4640,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J52" s="12" t="s">
         <v>54</v>
@@ -4597,16 +4669,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E53" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>37</v>
@@ -4617,14 +4689,14 @@
         <v>188</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N53" s="3"/>
       <c r="P53" s="2" t="s">
@@ -4637,7 +4709,7 @@
         <v>39</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -4647,16 +4719,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="E54" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>37</v>
@@ -4693,16 +4765,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="E55" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>37</v>
@@ -4713,14 +4785,14 @@
         <v>188</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N55" s="3"/>
       <c r="P55" s="2" t="s">
@@ -4733,26 +4805,26 @@
         <v>39</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
     </row>
-    <row r="56" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="E56" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>37</v>
@@ -4763,14 +4835,14 @@
         <v>188</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N56" s="3"/>
       <c r="P56" s="2" t="s">
@@ -4780,29 +4852,29 @@
         <v>49</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>398</v>
+        <v>204</v>
+      </c>
+      <c r="S56" s="12" t="s">
+        <v>390</v>
       </c>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
     </row>
-    <row r="57" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="E57" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>37</v>
@@ -4813,14 +4885,14 @@
         <v>188</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N57" s="3"/>
       <c r="P57" s="2" t="s">
@@ -4830,10 +4902,10 @@
         <v>26</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>401</v>
+        <v>204</v>
+      </c>
+      <c r="S57" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
@@ -4843,16 +4915,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>37</v>
@@ -4889,16 +4961,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="E59" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>37</v>
@@ -4933,16 +5005,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="E60" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>37</v>
@@ -4977,16 +5049,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="E61" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>37</v>
@@ -5021,16 +5093,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="E62" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>37</v>
@@ -5065,16 +5137,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="E63" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>37</v>
@@ -5109,16 +5181,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="E64" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>37</v>
@@ -5153,16 +5225,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="E65" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>37</v>
@@ -5197,16 +5269,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="E66" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>37</v>
@@ -5214,7 +5286,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J66" s="12" t="s">
         <v>54</v>
@@ -5243,36 +5315,36 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="E67" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="9"/>
       <c r="J67" s="12" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="3"/>
       <c r="O67" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>25</v>
@@ -5289,21 +5361,21 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
     </row>
-    <row r="68" spans="1:21" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="E68" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>37</v>
@@ -5311,14 +5383,14 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="3"/>
@@ -5329,10 +5401,10 @@
         <v>49</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>405</v>
+        <v>204</v>
+      </c>
+      <c r="S68" s="12" t="s">
+        <v>397</v>
       </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
@@ -5342,16 +5414,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="E69" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>37</v>
@@ -5359,17 +5431,17 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="N69" s="3"/>
       <c r="P69" s="2" t="s">
@@ -5387,21 +5459,21 @@
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
     </row>
-    <row r="70" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="E70" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>37</v>
@@ -5409,14 +5481,14 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="3"/>
@@ -5429,8 +5501,8 @@
       <c r="R70" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S70" s="3" t="s">
-        <v>411</v>
+      <c r="S70" s="12" t="s">
+        <v>403</v>
       </c>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
@@ -5440,16 +5512,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="E71" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>37</v>
@@ -5457,7 +5529,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J71" s="12" t="s">
         <v>54</v>
@@ -5486,16 +5558,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="E72" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>37</v>
@@ -5503,7 +5575,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J72" s="12" t="s">
         <v>54</v>
@@ -5532,16 +5604,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>37</v>
@@ -5549,7 +5621,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J73" s="12" t="s">
         <v>54</v>
@@ -5571,7 +5643,7 @@
         <v>59</v>
       </c>
       <c r="T73" s="15" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="U73" s="3"/>
     </row>
@@ -5580,16 +5652,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>37</v>
@@ -5597,7 +5669,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J74" s="12" t="s">
         <v>54</v>
@@ -5626,16 +5698,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>37</v>
@@ -5643,7 +5715,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J75" s="12" t="s">
         <v>54</v>
@@ -5672,22 +5744,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="9"/>
@@ -5718,16 +5790,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>37</v>
@@ -5735,7 +5807,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J77" s="12" t="s">
         <v>54</v>
@@ -5764,16 +5836,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>37</v>
@@ -5781,7 +5853,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J78" s="12" t="s">
         <v>54</v>
@@ -5810,16 +5882,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="E79" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>37</v>
@@ -5827,17 +5899,17 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="N79" s="3"/>
       <c r="P79" s="2" t="s">
@@ -5855,21 +5927,21 @@
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
     </row>
-    <row r="80" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>37</v>
@@ -5880,18 +5952,18 @@
         <v>188</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>25</v>
@@ -5900,10 +5972,10 @@
         <v>49</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="S80" s="3" t="s">
-        <v>419</v>
+        <v>204</v>
+      </c>
+      <c r="S80" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
@@ -5913,16 +5985,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>37</v>
@@ -5959,16 +6031,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>37</v>
@@ -5983,10 +6055,10 @@
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="N82" s="3"/>
       <c r="P82" s="2" t="s">
@@ -6009,16 +6081,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>37</v>
@@ -6053,22 +6125,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="9"/>

--- a/data_processing_elements-CHS.xlsx
+++ b/data_processing_elements-CHS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CADF4E-F02E-45A4-BF65-F76DAD75A65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564F4A51-9DC4-416E-8AB1-2A50BA004A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1655,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1713,9 +1713,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2059,10 +2056,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,7 +3074,7 @@
         <v>25</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>44</v>
@@ -4218,7 +4215,7 @@
       <c r="S43" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="T43" s="22"/>
+      <c r="T43" s="3"/>
       <c r="U43" s="3"/>
     </row>
     <row r="44" spans="1:21" ht="370.5" x14ac:dyDescent="0.25">
@@ -4899,7 +4896,7 @@
         <v>25</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>204</v>

--- a/data_processing_elements-CHS.xlsx
+++ b/data_processing_elements-CHS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564F4A51-9DC4-416E-8AB1-2A50BA004A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7785784A-CD55-42AD-A093-DB600E1BAAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="419">
   <si>
     <t>index</t>
   </si>
@@ -996,18 +996,6 @@
   </si>
   <si>
     <t>recode(0=1; 1=2; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>Faar;
-Fmd;
-Fdag;
-us</t>
-  </si>
-  <si>
-    <t>birth year;
-birth month;
-birth day;
-examination date</t>
   </si>
   <si>
     <t>Sub76</t>
@@ -1524,9 +1512,6 @@
 4=strenouos physical activity &gt;4 hours/week or hard physical activity several times per week</t>
   </si>
   <si>
-    <t>floor(as.numeric(difftime(format(as.Date(us, format = "%d%m%y"), "%Y-%m-%d"), as.Date(paste0(Faar, "-", Fmd, "-", Fdag), format = "%Y-%m-%d"), units = "days"))/365.25)</t>
-  </si>
-  <si>
     <t>(Sub59n_2 + Sub59o_2 + Sub59p_2 + Sub59q_2 + Sub59r_2)*7*12</t>
   </si>
   <si>
@@ -1543,6 +1528,9 @@
   </si>
   <si>
     <t>round(rowMeans(select(., V22_1, V22_2, V22_3), na.rm=TRUE), 2)</t>
+  </si>
+  <si>
+    <t>k0alder5</t>
   </si>
 </sst>
 </file>
@@ -1698,21 +1686,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2056,10 +2040,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O56" sqref="O56"/>
+      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,10 +2063,10 @@
     <col min="13" max="13" width="31.85546875" style="10" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="21.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="18" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="18" customWidth="1"/>
     <col min="20" max="21" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -2132,16 +2116,16 @@
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="7" t="s">
@@ -2182,16 +2166,16 @@
       <c r="L2" s="3"/>
       <c r="M2" s="9"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="18" t="s">
         <v>289</v>
       </c>
       <c r="T2" s="3"/>
@@ -2230,17 +2214,17 @@
       <c r="L3" s="3"/>
       <c r="M3" s="9"/>
       <c r="N3" s="3"/>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="16" t="s">
-        <v>416</v>
+      <c r="S3" s="19" t="s">
+        <v>413</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -2280,22 +2264,22 @@
         <v>294</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="18" t="s">
         <v>295</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2320,25 +2304,23 @@
       <c r="H5" s="3"/>
       <c r="I5" s="9"/>
       <c r="J5" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>297</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="9"/>
       <c r="N5" s="3"/>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="20" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>414</v>
+        <v>26</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
@@ -2368,29 +2350,29 @@
         <v>48</v>
       </c>
       <c r="J6" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>301</v>
-      </c>
       <c r="N6" s="3"/>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>417</v>
+      <c r="S6" s="18" t="s">
+        <v>414</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2420,30 +2402,30 @@
         <v>53</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="P7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="3" t="s">
+      <c r="P7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="2" t="s">
+      <c r="R7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U7" s="3"/>
     </row>
@@ -2478,20 +2460,20 @@
       <c r="L8" s="3"/>
       <c r="M8" s="9"/>
       <c r="N8" s="3"/>
-      <c r="P8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="3" t="s">
+      <c r="P8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S8" s="3" t="s">
+      <c r="R8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="U8" s="3"/>
     </row>
@@ -2526,16 +2508,16 @@
       <c r="L9" s="3"/>
       <c r="M9" s="9"/>
       <c r="N9" s="3"/>
-      <c r="P9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="3" t="s">
+      <c r="P9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="3" t="s">
+      <c r="R9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T9" s="3"/>
@@ -2570,16 +2552,16 @@
       <c r="L10" s="3"/>
       <c r="M10" s="9"/>
       <c r="N10" s="3"/>
-      <c r="P10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="3" t="s">
+      <c r="P10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="R10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T10" s="3"/>
@@ -2614,20 +2596,20 @@
       <c r="L11" s="3"/>
       <c r="M11" s="9"/>
       <c r="N11" s="3"/>
-      <c r="P11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" s="3" t="s">
+      <c r="P11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" s="3" t="s">
+      <c r="R11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="U11" s="3"/>
     </row>
@@ -2662,16 +2644,16 @@
       <c r="L12" s="3"/>
       <c r="M12" s="9"/>
       <c r="N12" s="3"/>
-      <c r="P12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="3" t="s">
+      <c r="P12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S12" s="3" t="s">
+      <c r="R12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T12" s="3"/>
@@ -2702,25 +2684,25 @@
         <v>79</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="3" t="s">
+      <c r="R13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T13" s="3"/>
@@ -2751,26 +2733,26 @@
         <v>83</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="18" t="s">
         <v>309</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -2806,20 +2788,20 @@
       <c r="L15" s="3"/>
       <c r="M15" s="9"/>
       <c r="N15" s="3"/>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="R15" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="S15" s="18">
         <v>2</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="U15" s="3"/>
     </row>
@@ -2848,28 +2830,28 @@
       <c r="H16" s="3"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="18" t="s">
         <v>44</v>
       </c>
       <c r="T16" s="3"/>
@@ -2900,32 +2882,32 @@
         <v>92</v>
       </c>
       <c r="J17" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>316</v>
+      <c r="S17" s="18" t="s">
+        <v>314</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="U17" s="3"/>
     </row>
@@ -2954,28 +2936,28 @@
       <c r="H18" s="3"/>
       <c r="I18" s="9"/>
       <c r="J18" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="S18" s="18" t="s">
         <v>44</v>
       </c>
       <c r="T18" s="3"/>
@@ -3006,32 +2988,32 @@
         <v>92</v>
       </c>
       <c r="J19" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>321</v>
+      <c r="S19" s="18" t="s">
+        <v>319</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="U19" s="3"/>
     </row>
@@ -3060,26 +3042,26 @@
       <c r="H20" s="3"/>
       <c r="I20" s="9"/>
       <c r="J20" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="9"/>
       <c r="N20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="S20" s="18" t="s">
         <v>44</v>
       </c>
       <c r="T20" s="3"/>
@@ -3110,28 +3092,28 @@
       <c r="H21" s="3"/>
       <c r="I21" s="9"/>
       <c r="J21" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="S21" s="18" t="s">
         <v>44</v>
       </c>
       <c r="T21" s="3"/>
@@ -3162,29 +3144,29 @@
         <v>92</v>
       </c>
       <c r="J22" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>327</v>
+      <c r="S22" s="18" t="s">
+        <v>325</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -3220,16 +3202,16 @@
       <c r="L23" s="3"/>
       <c r="M23" s="9"/>
       <c r="N23" s="3"/>
-      <c r="P23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q23" s="3" t="s">
+      <c r="P23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S23" s="3" t="s">
+      <c r="R23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T23" s="3"/>
@@ -3264,16 +3246,16 @@
       <c r="L24" s="3"/>
       <c r="M24" s="9"/>
       <c r="N24" s="3"/>
-      <c r="P24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q24" s="3" t="s">
+      <c r="P24" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S24" s="3" t="s">
+      <c r="R24" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T24" s="3"/>
@@ -3304,13 +3286,13 @@
       <c r="H25" s="3"/>
       <c r="I25" s="9"/>
       <c r="J25" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="3" t="s">
@@ -3319,17 +3301,17 @@
       <c r="O25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>419</v>
+      <c r="S25" s="18" t="s">
+        <v>416</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -3359,13 +3341,13 @@
       <c r="H26" s="3"/>
       <c r="I26" s="9"/>
       <c r="J26" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="3" t="s">
@@ -3374,17 +3356,17 @@
       <c r="O26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="P26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>420</v>
+      <c r="S26" s="18" t="s">
+        <v>417</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -3420,16 +3402,16 @@
       <c r="L27" s="3"/>
       <c r="M27" s="9"/>
       <c r="N27" s="3"/>
-      <c r="P27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="3" t="s">
+      <c r="P27" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S27" s="3" t="s">
+      <c r="R27" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T27" s="3"/>
@@ -3466,16 +3448,16 @@
       <c r="L28" s="3"/>
       <c r="M28" s="9"/>
       <c r="N28" s="3"/>
-      <c r="P28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q28" s="3" t="s">
+      <c r="P28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S28" s="3" t="s">
+      <c r="R28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T28" s="3"/>
@@ -3506,29 +3488,29 @@
         <v>126</v>
       </c>
       <c r="J29" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="N29" s="3"/>
+      <c r="P29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R29" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="18" t="s">
         <v>334</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="N29" s="3"/>
-      <c r="P29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -3558,28 +3540,28 @@
       <c r="H30" s="3"/>
       <c r="I30" s="9"/>
       <c r="J30" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="9"/>
       <c r="N30" s="3"/>
-      <c r="P30" s="2" t="s">
+      <c r="P30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="Q30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="R30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="18" t="s">
         <v>44</v>
       </c>
       <c r="T30" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="U30" s="3"/>
     </row>
@@ -3614,16 +3596,16 @@
       <c r="L31" s="3"/>
       <c r="M31" s="9"/>
       <c r="N31" s="3"/>
-      <c r="P31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q31" s="3" t="s">
+      <c r="P31" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q31" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S31" s="3" t="s">
+      <c r="R31" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S31" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T31" s="3"/>
@@ -3654,26 +3636,26 @@
       <c r="H32" s="3"/>
       <c r="I32" s="9"/>
       <c r="J32" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="9"/>
       <c r="N32" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="P32" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="P32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="R32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="18" t="s">
         <v>44</v>
       </c>
       <c r="T32" s="3"/>
@@ -3704,28 +3686,28 @@
       <c r="H33" s="3"/>
       <c r="I33" s="9"/>
       <c r="J33" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="9"/>
       <c r="N33" s="3"/>
-      <c r="P33" s="2" t="s">
+      <c r="P33" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="Q33" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="R33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="18" t="s">
         <v>44</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="U33" s="3"/>
     </row>
@@ -3754,26 +3736,26 @@
       <c r="H34" s="3"/>
       <c r="I34" s="9"/>
       <c r="J34" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="9"/>
       <c r="N34" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="P34" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="P34" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="R34" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="S34" s="18" t="s">
         <v>44</v>
       </c>
       <c r="T34" s="3"/>
@@ -3804,30 +3786,30 @@
       <c r="H35" s="3"/>
       <c r="I35" s="9"/>
       <c r="J35" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="9"/>
       <c r="N35" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="P35" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="Q35" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="R35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>350</v>
+      <c r="S35" s="18" t="s">
+        <v>348</v>
       </c>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -3857,26 +3839,26 @@
       <c r="H36" s="3"/>
       <c r="I36" s="9"/>
       <c r="J36" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="9"/>
       <c r="N36" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="P36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="P36" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="Q36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="R36" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="S36" s="18" t="s">
         <v>44</v>
       </c>
       <c r="T36" s="3"/>
@@ -3907,26 +3889,26 @@
       <c r="H37" s="3"/>
       <c r="I37" s="9"/>
       <c r="J37" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="9"/>
       <c r="N37" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="P37" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="P37" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="Q37" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="R37" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="S37" s="18" t="s">
         <v>44</v>
       </c>
       <c r="T37" s="3"/>
@@ -3963,16 +3945,16 @@
       <c r="L38" s="3"/>
       <c r="M38" s="9"/>
       <c r="N38" s="3"/>
-      <c r="P38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q38" s="3" t="s">
+      <c r="P38" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q38" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S38" s="3" t="s">
+      <c r="R38" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S38" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T38" s="3"/>
@@ -4003,27 +3985,27 @@
         <v>155</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N39" s="3"/>
-      <c r="P39" s="2" t="s">
+      <c r="P39" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="Q39" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="R39" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="S39" s="3" t="s">
-        <v>359</v>
+      <c r="S39" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
@@ -4059,16 +4041,16 @@
       <c r="L40" s="3"/>
       <c r="M40" s="9"/>
       <c r="N40" s="3"/>
-      <c r="P40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q40" s="3" t="s">
+      <c r="P40" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q40" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S40" s="3" t="s">
+      <c r="R40" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T40" s="3"/>
@@ -4099,27 +4081,27 @@
         <v>155</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N41" s="3"/>
-      <c r="P41" s="2" t="s">
+      <c r="P41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="Q41" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="R41" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>359</v>
+      <c r="S41" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
@@ -4155,22 +4137,22 @@
       <c r="L42" s="3"/>
       <c r="M42" s="9"/>
       <c r="N42" s="3"/>
-      <c r="P42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q42" s="3" t="s">
+      <c r="P42" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q42" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S42" s="3" t="s">
+      <c r="R42" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S42" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
     </row>
-    <row r="43" spans="1:21" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4195,30 +4177,30 @@
       <c r="H43" s="3"/>
       <c r="I43" s="9"/>
       <c r="J43" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N43" s="3"/>
-      <c r="P43" s="20" t="s">
+      <c r="P43" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="Q43" s="21" t="s">
+      <c r="Q43" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="R43" s="21" t="s">
+      <c r="R43" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="S43" s="21" t="s">
-        <v>415</v>
+      <c r="S43" s="16" t="s">
+        <v>412</v>
       </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
     </row>
-    <row r="44" spans="1:21" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="371.25" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4243,32 +4225,32 @@
         <v>171</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="P44" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R44" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="S44" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="N44" s="3"/>
-      <c r="P44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="S44" s="12" t="s">
-        <v>367</v>
       </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
     </row>
-    <row r="45" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4293,27 +4275,27 @@
         <v>175</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="P45" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R45" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="N45" s="3"/>
-      <c r="P45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="S45" s="12" t="s">
-        <v>371</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -4343,27 +4325,27 @@
         <v>178</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q46" s="3" t="s">
+      <c r="P46" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q46" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S46" s="3" t="s">
+      <c r="R46" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S46" s="18" t="s">
         <v>59</v>
       </c>
       <c r="U46" s="3"/>
@@ -4393,25 +4375,25 @@
       <c r="H47" s="3"/>
       <c r="I47" s="9"/>
       <c r="J47" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="3"/>
-      <c r="P47" s="2" t="s">
+      <c r="P47" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="R47" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>374</v>
+      <c r="S47" s="18" t="s">
+        <v>372</v>
       </c>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
@@ -4447,22 +4429,22 @@
       <c r="L48" s="3"/>
       <c r="M48" s="9"/>
       <c r="N48" s="3"/>
-      <c r="P48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q48" s="3" t="s">
+      <c r="P48" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q48" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S48" s="3" t="s">
+      <c r="R48" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S48" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
-    <row r="49" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4487,32 +4469,32 @@
         <v>188</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N49" s="3"/>
-      <c r="P49" s="2" t="s">
+      <c r="P49" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="Q49" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="S49" s="12" t="s">
-        <v>377</v>
+      <c r="S49" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
     </row>
-    <row r="50" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4537,27 +4519,27 @@
         <v>188</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N50" s="3"/>
-      <c r="P50" s="2" t="s">
+      <c r="P50" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="Q50" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="R50" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="S50" s="12" t="s">
-        <v>380</v>
+      <c r="S50" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -4587,29 +4569,29 @@
         <v>188</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="P51" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="P51" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q51" s="3" t="s">
+      <c r="Q51" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="R51" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="S51" s="3" t="s">
+      <c r="S51" s="18" t="s">
         <v>194</v>
       </c>
       <c r="T51" s="3"/>
@@ -4646,16 +4628,16 @@
       <c r="L52" s="3"/>
       <c r="M52" s="9"/>
       <c r="N52" s="3"/>
-      <c r="P52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q52" s="3" t="s">
+      <c r="P52" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q52" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S52" s="3" t="s">
+      <c r="R52" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S52" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T52" s="3"/>
@@ -4686,26 +4668,26 @@
         <v>188</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N53" s="3"/>
-      <c r="P53" s="2" t="s">
+      <c r="P53" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q53" s="3" t="s">
+      <c r="Q53" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="R53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="S53" s="3" t="s">
+      <c r="S53" s="18" t="s">
         <v>194</v>
       </c>
       <c r="T53" s="3"/>
@@ -4742,16 +4724,16 @@
       <c r="L54" s="3"/>
       <c r="M54" s="9"/>
       <c r="N54" s="3"/>
-      <c r="P54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q54" s="3" t="s">
+      <c r="P54" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q54" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S54" s="3" t="s">
+      <c r="R54" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S54" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T54" s="3"/>
@@ -4782,32 +4764,32 @@
         <v>188</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N55" s="3"/>
-      <c r="P55" s="2" t="s">
+      <c r="P55" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q55" s="3" t="s">
+      <c r="Q55" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="R55" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="S55" s="3" t="s">
+      <c r="S55" s="18" t="s">
         <v>194</v>
       </c>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
     </row>
-    <row r="56" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4832,32 +4814,32 @@
         <v>188</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N56" s="3"/>
-      <c r="P56" s="2" t="s">
+      <c r="P56" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q56" s="3" t="s">
+      <c r="Q56" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R56" s="3" t="s">
+      <c r="R56" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="S56" s="12" t="s">
-        <v>390</v>
+      <c r="S56" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
     </row>
-    <row r="57" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="72" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4882,27 +4864,27 @@
         <v>188</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N57" s="3"/>
-      <c r="P57" s="2" t="s">
+      <c r="P57" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="Q57" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="R57" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="S57" s="12" t="s">
-        <v>393</v>
+      <c r="S57" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
@@ -4938,16 +4920,16 @@
       <c r="L58" s="3"/>
       <c r="M58" s="9"/>
       <c r="N58" s="3"/>
-      <c r="P58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q58" s="3" t="s">
+      <c r="P58" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q58" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S58" s="3" t="s">
+      <c r="R58" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S58" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T58" s="3"/>
@@ -4982,16 +4964,16 @@
       <c r="L59" s="3"/>
       <c r="M59" s="9"/>
       <c r="N59" s="3"/>
-      <c r="P59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q59" s="3" t="s">
+      <c r="P59" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q59" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S59" s="3" t="s">
+      <c r="R59" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S59" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T59" s="3"/>
@@ -5026,16 +5008,16 @@
       <c r="L60" s="3"/>
       <c r="M60" s="9"/>
       <c r="N60" s="3"/>
-      <c r="P60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q60" s="3" t="s">
+      <c r="P60" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q60" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S60" s="3" t="s">
+      <c r="R60" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S60" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T60" s="3"/>
@@ -5070,16 +5052,16 @@
       <c r="L61" s="3"/>
       <c r="M61" s="9"/>
       <c r="N61" s="3"/>
-      <c r="P61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q61" s="3" t="s">
+      <c r="P61" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q61" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R61" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S61" s="3" t="s">
+      <c r="R61" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S61" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T61" s="3"/>
@@ -5114,16 +5096,16 @@
       <c r="L62" s="3"/>
       <c r="M62" s="9"/>
       <c r="N62" s="3"/>
-      <c r="P62" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q62" s="3" t="s">
+      <c r="P62" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q62" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S62" s="3" t="s">
+      <c r="R62" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S62" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T62" s="3"/>
@@ -5158,16 +5140,16 @@
       <c r="L63" s="3"/>
       <c r="M63" s="9"/>
       <c r="N63" s="3"/>
-      <c r="P63" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q63" s="3" t="s">
+      <c r="P63" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q63" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R63" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S63" s="3" t="s">
+      <c r="R63" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S63" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T63" s="3"/>
@@ -5202,16 +5184,16 @@
       <c r="L64" s="3"/>
       <c r="M64" s="9"/>
       <c r="N64" s="3"/>
-      <c r="P64" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q64" s="3" t="s">
+      <c r="P64" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q64" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S64" s="3" t="s">
+      <c r="R64" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S64" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T64" s="3"/>
@@ -5246,16 +5228,16 @@
       <c r="L65" s="3"/>
       <c r="M65" s="9"/>
       <c r="N65" s="3"/>
-      <c r="P65" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q65" s="3" t="s">
+      <c r="P65" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q65" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R65" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S65" s="3" t="s">
+      <c r="R65" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S65" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T65" s="3"/>
@@ -5292,16 +5274,16 @@
       <c r="L66" s="3"/>
       <c r="M66" s="9"/>
       <c r="N66" s="3"/>
-      <c r="P66" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q66" s="3" t="s">
+      <c r="P66" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q66" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S66" s="3" t="s">
+      <c r="R66" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S66" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T66" s="3"/>
@@ -5332,33 +5314,33 @@
       <c r="H67" s="3"/>
       <c r="I67" s="9"/>
       <c r="J67" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="3"/>
       <c r="O67" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="P67" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="P67" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q67" s="3" t="s">
+      <c r="Q67" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R67" s="3" t="s">
+      <c r="R67" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S67" s="3" t="s">
+      <c r="S67" s="18" t="s">
         <v>44</v>
       </c>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
     </row>
-    <row r="68" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -5383,25 +5365,25 @@
         <v>234</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="3"/>
-      <c r="P68" s="2" t="s">
+      <c r="P68" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q68" s="3" t="s">
+      <c r="Q68" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R68" s="3" t="s">
+      <c r="R68" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="S68" s="12" t="s">
-        <v>397</v>
+      <c r="S68" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
@@ -5431,32 +5413,32 @@
         <v>237</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N69" s="3"/>
-      <c r="P69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q69" s="3" t="s">
+      <c r="P69" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q69" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R69" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S69" s="3" t="s">
+      <c r="R69" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S69" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
     </row>
-    <row r="70" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -5481,25 +5463,25 @@
         <v>240</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="3"/>
-      <c r="P70" s="2" t="s">
+      <c r="P70" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q70" s="3" t="s">
+      <c r="Q70" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R70" s="3" t="s">
+      <c r="R70" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S70" s="12" t="s">
-        <v>403</v>
+      <c r="S70" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
@@ -5535,16 +5517,16 @@
       <c r="L71" s="3"/>
       <c r="M71" s="9"/>
       <c r="N71" s="3"/>
-      <c r="P71" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q71" s="3" t="s">
+      <c r="P71" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q71" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R71" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S71" s="3" t="s">
+      <c r="R71" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S71" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T71" s="3"/>
@@ -5581,16 +5563,16 @@
       <c r="L72" s="3"/>
       <c r="M72" s="9"/>
       <c r="N72" s="3"/>
-      <c r="P72" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q72" s="3" t="s">
+      <c r="P72" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q72" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S72" s="3" t="s">
+      <c r="R72" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S72" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T72" s="3"/>
@@ -5627,20 +5609,20 @@
       <c r="L73" s="3"/>
       <c r="M73" s="9"/>
       <c r="N73" s="3"/>
-      <c r="P73" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q73" s="3" t="s">
+      <c r="P73" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q73" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R73" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S73" s="3" t="s">
+      <c r="R73" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S73" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T73" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="U73" s="3"/>
     </row>
@@ -5675,16 +5657,16 @@
       <c r="L74" s="3"/>
       <c r="M74" s="9"/>
       <c r="N74" s="3"/>
-      <c r="P74" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q74" s="3" t="s">
+      <c r="P74" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q74" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R74" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S74" s="3" t="s">
+      <c r="R74" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S74" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T74" s="3"/>
@@ -5721,16 +5703,16 @@
       <c r="L75" s="3"/>
       <c r="M75" s="9"/>
       <c r="N75" s="3"/>
-      <c r="P75" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q75" s="3" t="s">
+      <c r="P75" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q75" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R75" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S75" s="3" t="s">
+      <c r="R75" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S75" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T75" s="3"/>
@@ -5767,16 +5749,16 @@
       <c r="L76" s="3"/>
       <c r="M76" s="9"/>
       <c r="N76" s="3"/>
-      <c r="P76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q76" s="3" t="s">
+      <c r="P76" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q76" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S76" s="3" t="s">
+      <c r="R76" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S76" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T76" s="3"/>
@@ -5813,16 +5795,16 @@
       <c r="L77" s="3"/>
       <c r="M77" s="9"/>
       <c r="N77" s="3"/>
-      <c r="P77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q77" s="3" t="s">
+      <c r="P77" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q77" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R77" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S77" s="3" t="s">
+      <c r="R77" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S77" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T77" s="3"/>
@@ -5859,16 +5841,16 @@
       <c r="L78" s="3"/>
       <c r="M78" s="9"/>
       <c r="N78" s="3"/>
-      <c r="P78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q78" s="3" t="s">
+      <c r="P78" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q78" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R78" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S78" s="3" t="s">
+      <c r="R78" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S78" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T78" s="3"/>
@@ -5899,32 +5881,32 @@
         <v>270</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N79" s="3"/>
-      <c r="P79" s="2" t="s">
+      <c r="P79" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q79" s="3" t="s">
+      <c r="Q79" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R79" s="3" t="s">
+      <c r="R79" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S79" s="3" t="s">
+      <c r="S79" s="18" t="s">
         <v>44</v>
       </c>
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
     </row>
-    <row r="80" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="186" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -5949,30 +5931,30 @@
         <v>188</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="P80" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="P80" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q80" s="3" t="s">
+      <c r="Q80" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R80" s="3" t="s">
+      <c r="R80" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="S80" s="12" t="s">
-        <v>411</v>
+      <c r="S80" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
@@ -6008,16 +5990,16 @@
       <c r="L81" s="3"/>
       <c r="M81" s="9"/>
       <c r="N81" s="3"/>
-      <c r="P81" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q81" s="3" t="s">
+      <c r="P81" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q81" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S81" s="3" t="s">
+      <c r="R81" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S81" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T81" s="3"/>
@@ -6052,22 +6034,22 @@
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N82" s="3"/>
-      <c r="P82" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q82" s="3" t="s">
+      <c r="P82" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q82" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R82" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S82" s="3" t="s">
+      <c r="R82" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S82" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T82" s="3"/>
@@ -6102,16 +6084,16 @@
       <c r="L83" s="3"/>
       <c r="M83" s="9"/>
       <c r="N83" s="3"/>
-      <c r="P83" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q83" s="3" t="s">
+      <c r="P83" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q83" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S83" s="3" t="s">
+      <c r="R83" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S83" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T83" s="3"/>
@@ -6148,16 +6130,16 @@
       <c r="L84" s="3"/>
       <c r="M84" s="9"/>
       <c r="N84" s="3"/>
-      <c r="P84" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q84" s="3" t="s">
+      <c r="P84" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q84" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R84" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S84" s="3" t="s">
+      <c r="R84" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S84" s="18" t="s">
         <v>59</v>
       </c>
       <c r="T84" s="3"/>

--- a/data_processing_elements-CHS.xlsx
+++ b/data_processing_elements-CHS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelstrom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7785784A-CD55-42AD-A093-DB600E1BAAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F66206E-B8AD-4495-A810-0BAA59F5F05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="420">
   <si>
     <t>index</t>
   </si>
@@ -1531,6 +1531,9 @@
   </si>
   <si>
     <t>k0alder5</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1689,9 +1692,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2040,37 +2042,37 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="8.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="18" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="18" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="18" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="2"/>
+    <col min="8" max="8" width="8.54296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.7265625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="25.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="31.81640625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="7.7265625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.26953125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.54296875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.81640625" style="2" customWidth="1"/>
+    <col min="20" max="21" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2135,7 +2137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2158,7 +2160,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="9"/>
       <c r="J2" s="12" t="s">
-        <v>289</v>
+        <v>419</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>290</v>
@@ -2166,22 +2168,22 @@
       <c r="L2" s="3"/>
       <c r="M2" s="9"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="2" t="s">
         <v>289</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2214,22 +2216,22 @@
       <c r="L3" s="3"/>
       <c r="M3" s="9"/>
       <c r="N3" s="3"/>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>413</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2264,22 +2266,22 @@
         <v>294</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="2" t="s">
         <v>295</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2310,22 +2312,22 @@
       <c r="L5" s="3"/>
       <c r="M5" s="9"/>
       <c r="N5" s="3"/>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="20" t="s">
         <v>44</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2362,22 +2364,22 @@
         <v>299</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="2" t="s">
         <v>414</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2412,16 +2414,16 @@
         <v>302</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="P7" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="18" t="s">
+      <c r="P7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="18" t="s">
+      <c r="R7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T7" s="15" t="s">
@@ -2429,7 +2431,7 @@
       </c>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="25" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2460,16 +2462,16 @@
       <c r="L8" s="3"/>
       <c r="M8" s="9"/>
       <c r="N8" s="3"/>
-      <c r="P8" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="18" t="s">
+      <c r="P8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S8" s="18" t="s">
+      <c r="R8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T8" s="15" t="s">
@@ -2477,7 +2479,7 @@
       </c>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="25" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2508,22 +2510,22 @@
       <c r="L9" s="3"/>
       <c r="M9" s="9"/>
       <c r="N9" s="3"/>
-      <c r="P9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="18" t="s">
+      <c r="P9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="18" t="s">
+      <c r="R9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2552,22 +2554,22 @@
       <c r="L10" s="3"/>
       <c r="M10" s="9"/>
       <c r="N10" s="3"/>
-      <c r="P10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="18" t="s">
+      <c r="P10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S10" s="18" t="s">
+      <c r="R10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2596,16 +2598,16 @@
       <c r="L11" s="3"/>
       <c r="M11" s="9"/>
       <c r="N11" s="3"/>
-      <c r="P11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" s="18" t="s">
+      <c r="P11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="R11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" s="18" t="s">
+      <c r="R11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T11" s="3" t="s">
@@ -2613,7 +2615,7 @@
       </c>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="25" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2644,22 +2646,22 @@
       <c r="L12" s="3"/>
       <c r="M12" s="9"/>
       <c r="N12" s="3"/>
-      <c r="P12" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="18" t="s">
+      <c r="P12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R12" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S12" s="18" t="s">
+      <c r="R12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="50" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2693,22 +2695,22 @@
       <c r="M13" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="P13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="18" t="s">
+      <c r="P13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="R13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="18" t="s">
+      <c r="R13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="50" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2742,22 +2744,22 @@
       <c r="M14" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="2" t="s">
         <v>309</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="25" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2788,16 +2790,16 @@
       <c r="L15" s="3"/>
       <c r="M15" s="9"/>
       <c r="N15" s="3"/>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="Q15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="S15" s="18">
+      <c r="S15" s="2">
         <v>2</v>
       </c>
       <c r="T15" s="15" t="s">
@@ -2805,7 +2807,7 @@
       </c>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2842,22 +2844,22 @@
       <c r="N16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="18" t="s">
+      <c r="Q16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="18" t="s">
+      <c r="R16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="25" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2894,16 +2896,16 @@
       <c r="N17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="Q17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="18" t="s">
+      <c r="R17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="2" t="s">
         <v>314</v>
       </c>
       <c r="T17" s="15" t="s">
@@ -2911,7 +2913,7 @@
       </c>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2948,22 +2950,22 @@
       <c r="N18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="P18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="18" t="s">
+      <c r="Q18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R18" s="18" t="s">
+      <c r="R18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="25" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3000,16 +3002,16 @@
       <c r="N19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="P19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="18" t="s">
+      <c r="Q19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="18" t="s">
+      <c r="R19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="18" t="s">
+      <c r="S19" s="2" t="s">
         <v>319</v>
       </c>
       <c r="T19" s="15" t="s">
@@ -3017,7 +3019,7 @@
       </c>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3052,22 +3054,22 @@
       <c r="N20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="P20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="18" t="s">
+      <c r="Q20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R20" s="18" t="s">
+      <c r="R20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S20" s="18" t="s">
+      <c r="S20" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3104,22 +3106,22 @@
       <c r="N21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="18" t="s">
+      <c r="P21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="18" t="s">
+      <c r="Q21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R21" s="18" t="s">
+      <c r="R21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S21" s="18" t="s">
+      <c r="S21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="25" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3156,22 +3158,22 @@
       <c r="N22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="18" t="s">
+      <c r="Q22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="18" t="s">
+      <c r="R22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="2" t="s">
         <v>325</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3202,22 +3204,22 @@
       <c r="L23" s="3"/>
       <c r="M23" s="9"/>
       <c r="N23" s="3"/>
-      <c r="P23" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q23" s="18" t="s">
+      <c r="P23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R23" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S23" s="18" t="s">
+      <c r="R23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3246,22 +3248,22 @@
       <c r="L24" s="3"/>
       <c r="M24" s="9"/>
       <c r="N24" s="3"/>
-      <c r="P24" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q24" s="18" t="s">
+      <c r="P24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R24" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S24" s="18" t="s">
+      <c r="R24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3301,22 +3303,22 @@
       <c r="O25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="P25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q25" s="18" t="s">
+      <c r="Q25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R25" s="18" t="s">
+      <c r="R25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S25" s="18" t="s">
+      <c r="S25" s="2" t="s">
         <v>416</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3356,22 +3358,22 @@
       <c r="O26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="18" t="s">
+      <c r="P26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="18" t="s">
+      <c r="Q26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R26" s="18" t="s">
+      <c r="R26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S26" s="18" t="s">
+      <c r="S26" s="2" t="s">
         <v>417</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3402,22 +3404,22 @@
       <c r="L27" s="3"/>
       <c r="M27" s="9"/>
       <c r="N27" s="3"/>
-      <c r="P27" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="18" t="s">
+      <c r="P27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R27" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S27" s="18" t="s">
+      <c r="R27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3448,22 +3450,22 @@
       <c r="L28" s="3"/>
       <c r="M28" s="9"/>
       <c r="N28" s="3"/>
-      <c r="P28" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q28" s="18" t="s">
+      <c r="P28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R28" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S28" s="18" t="s">
+      <c r="R28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
     </row>
-    <row r="29" spans="1:21" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3500,22 +3502,22 @@
         <v>333</v>
       </c>
       <c r="N29" s="3"/>
-      <c r="P29" s="18" t="s">
+      <c r="P29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R29" s="18" t="s">
+      <c r="R29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S29" s="18" t="s">
+      <c r="S29" s="2" t="s">
         <v>334</v>
       </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3548,16 +3550,16 @@
       <c r="L30" s="3"/>
       <c r="M30" s="9"/>
       <c r="N30" s="3"/>
-      <c r="P30" s="18" t="s">
+      <c r="P30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="18" t="s">
+      <c r="R30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S30" s="18" t="s">
+      <c r="S30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T30" s="15" t="s">
@@ -3565,7 +3567,7 @@
       </c>
       <c r="U30" s="3"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3596,22 +3598,22 @@
       <c r="L31" s="3"/>
       <c r="M31" s="9"/>
       <c r="N31" s="3"/>
-      <c r="P31" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q31" s="18" t="s">
+      <c r="P31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R31" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S31" s="18" t="s">
+      <c r="R31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S31" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3646,22 +3648,22 @@
       <c r="N32" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="P32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="18" t="s">
+      <c r="Q32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R32" s="18" t="s">
+      <c r="R32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S32" s="18" t="s">
+      <c r="S32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3694,16 +3696,16 @@
       <c r="L33" s="3"/>
       <c r="M33" s="9"/>
       <c r="N33" s="3"/>
-      <c r="P33" s="18" t="s">
+      <c r="P33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q33" s="18" t="s">
+      <c r="Q33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R33" s="18" t="s">
+      <c r="R33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S33" s="18" t="s">
+      <c r="S33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T33" s="15" t="s">
@@ -3711,7 +3713,7 @@
       </c>
       <c r="U33" s="3"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3746,22 +3748,22 @@
       <c r="N34" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="P34" s="18" t="s">
+      <c r="P34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q34" s="18" t="s">
+      <c r="Q34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R34" s="18" t="s">
+      <c r="R34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S34" s="18" t="s">
+      <c r="S34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
     </row>
-    <row r="35" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3799,22 +3801,22 @@
       <c r="O35" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="P35" s="18" t="s">
+      <c r="P35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q35" s="18" t="s">
+      <c r="Q35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R35" s="18" t="s">
+      <c r="R35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S35" s="18" t="s">
+      <c r="S35" s="2" t="s">
         <v>348</v>
       </c>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3849,22 +3851,22 @@
       <c r="N36" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="P36" s="18" t="s">
+      <c r="P36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q36" s="18" t="s">
+      <c r="Q36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R36" s="18" t="s">
+      <c r="R36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S36" s="18" t="s">
+      <c r="S36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3899,22 +3901,22 @@
       <c r="N37" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="P37" s="18" t="s">
+      <c r="P37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q37" s="18" t="s">
+      <c r="Q37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R37" s="18" t="s">
+      <c r="R37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S37" s="18" t="s">
+      <c r="S37" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3945,22 +3947,22 @@
       <c r="L38" s="3"/>
       <c r="M38" s="9"/>
       <c r="N38" s="3"/>
-      <c r="P38" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q38" s="18" t="s">
+      <c r="P38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R38" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S38" s="18" t="s">
+      <c r="R38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
     </row>
-    <row r="39" spans="1:21" ht="102" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="100" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3995,22 +3997,22 @@
         <v>356</v>
       </c>
       <c r="N39" s="3"/>
-      <c r="P39" s="18" t="s">
+      <c r="P39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q39" s="18" t="s">
+      <c r="Q39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R39" s="18" t="s">
+      <c r="R39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S39" s="18" t="s">
+      <c r="S39" s="2" t="s">
         <v>357</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -4041,22 +4043,22 @@
       <c r="L40" s="3"/>
       <c r="M40" s="9"/>
       <c r="N40" s="3"/>
-      <c r="P40" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q40" s="18" t="s">
+      <c r="P40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R40" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S40" s="18" t="s">
+      <c r="R40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
     </row>
-    <row r="41" spans="1:21" ht="102" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="100" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -4091,22 +4093,22 @@
         <v>356</v>
       </c>
       <c r="N41" s="3"/>
-      <c r="P41" s="18" t="s">
+      <c r="P41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="18" t="s">
+      <c r="Q41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R41" s="18" t="s">
+      <c r="R41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S41" s="18" t="s">
+      <c r="S41" s="2" t="s">
         <v>357</v>
       </c>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -4137,22 +4139,22 @@
       <c r="L42" s="3"/>
       <c r="M42" s="9"/>
       <c r="N42" s="3"/>
-      <c r="P42" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q42" s="18" t="s">
+      <c r="P42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R42" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S42" s="18" t="s">
+      <c r="R42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S42" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
     </row>
-    <row r="43" spans="1:21" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="71" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4200,7 +4202,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
     </row>
-    <row r="44" spans="1:21" ht="371.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="322.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4235,13 +4237,13 @@
         <v>364</v>
       </c>
       <c r="N44" s="3"/>
-      <c r="P44" s="18" t="s">
+      <c r="P44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q44" s="18" t="s">
+      <c r="Q44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R44" s="18" t="s">
+      <c r="R44" s="2" t="s">
         <v>204</v>
       </c>
       <c r="S44" s="1" t="s">
@@ -4250,7 +4252,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
     </row>
-    <row r="45" spans="1:21" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4285,13 +4287,13 @@
         <v>368</v>
       </c>
       <c r="N45" s="3"/>
-      <c r="P45" s="18" t="s">
+      <c r="P45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q45" s="18" t="s">
+      <c r="Q45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R45" s="18" t="s">
+      <c r="R45" s="2" t="s">
         <v>204</v>
       </c>
       <c r="S45" s="1" t="s">
@@ -4300,7 +4302,7 @@
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
     </row>
-    <row r="46" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4336,21 +4338,21 @@
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q46" s="18" t="s">
+      <c r="P46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q46" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R46" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S46" s="18" t="s">
+      <c r="R46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S46" s="2" t="s">
         <v>59</v>
       </c>
       <c r="U46" s="3"/>
     </row>
-    <row r="47" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -4383,22 +4385,22 @@
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="3"/>
-      <c r="P47" s="18" t="s">
+      <c r="P47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q47" s="18" t="s">
+      <c r="Q47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R47" s="18" t="s">
+      <c r="R47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="18" t="s">
+      <c r="S47" s="2" t="s">
         <v>372</v>
       </c>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
-    <row r="48" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="50" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -4429,22 +4431,22 @@
       <c r="L48" s="3"/>
       <c r="M48" s="9"/>
       <c r="N48" s="3"/>
-      <c r="P48" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q48" s="18" t="s">
+      <c r="P48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q48" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R48" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S48" s="18" t="s">
+      <c r="R48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S48" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
-    <row r="49" spans="1:21" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4479,13 +4481,13 @@
         <v>368</v>
       </c>
       <c r="N49" s="3"/>
-      <c r="P49" s="18" t="s">
+      <c r="P49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q49" s="18" t="s">
+      <c r="Q49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R49" s="18" t="s">
+      <c r="R49" s="2" t="s">
         <v>204</v>
       </c>
       <c r="S49" s="1" t="s">
@@ -4494,7 +4496,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
     </row>
-    <row r="50" spans="1:21" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="56.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4529,13 +4531,13 @@
         <v>368</v>
       </c>
       <c r="N50" s="3"/>
-      <c r="P50" s="18" t="s">
+      <c r="P50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q50" s="18" t="s">
+      <c r="Q50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R50" s="18" t="s">
+      <c r="R50" s="2" t="s">
         <v>204</v>
       </c>
       <c r="S50" s="1" t="s">
@@ -4544,7 +4546,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
     </row>
-    <row r="51" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="25" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4582,22 +4584,22 @@
       <c r="O51" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="P51" s="18" t="s">
+      <c r="P51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q51" s="18" t="s">
+      <c r="Q51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R51" s="18" t="s">
+      <c r="R51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S51" s="18" t="s">
+      <c r="S51" s="2" t="s">
         <v>194</v>
       </c>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
     </row>
-    <row r="52" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4628,22 +4630,22 @@
       <c r="L52" s="3"/>
       <c r="M52" s="9"/>
       <c r="N52" s="3"/>
-      <c r="P52" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q52" s="18" t="s">
+      <c r="P52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R52" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S52" s="18" t="s">
+      <c r="R52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S52" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
     </row>
-    <row r="53" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="25" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4678,22 +4680,22 @@
         <v>368</v>
       </c>
       <c r="N53" s="3"/>
-      <c r="P53" s="18" t="s">
+      <c r="P53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q53" s="18" t="s">
+      <c r="Q53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R53" s="18" t="s">
+      <c r="R53" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S53" s="18" t="s">
+      <c r="S53" s="2" t="s">
         <v>194</v>
       </c>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
     </row>
-    <row r="54" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="25" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4724,22 +4726,22 @@
       <c r="L54" s="3"/>
       <c r="M54" s="9"/>
       <c r="N54" s="3"/>
-      <c r="P54" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q54" s="18" t="s">
+      <c r="P54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R54" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S54" s="18" t="s">
+      <c r="R54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S54" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
     </row>
-    <row r="55" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="25" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4774,22 +4776,22 @@
         <v>368</v>
       </c>
       <c r="N55" s="3"/>
-      <c r="P55" s="18" t="s">
+      <c r="P55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q55" s="18" t="s">
+      <c r="Q55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R55" s="18" t="s">
+      <c r="R55" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S55" s="18" t="s">
+      <c r="S55" s="2" t="s">
         <v>194</v>
       </c>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
     </row>
-    <row r="56" spans="1:21" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4824,13 +4826,13 @@
         <v>368</v>
       </c>
       <c r="N56" s="3"/>
-      <c r="P56" s="18" t="s">
+      <c r="P56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q56" s="18" t="s">
+      <c r="Q56" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R56" s="18" t="s">
+      <c r="R56" s="2" t="s">
         <v>204</v>
       </c>
       <c r="S56" s="1" t="s">
@@ -4839,7 +4841,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
     </row>
-    <row r="57" spans="1:21" ht="72" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="70.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4874,13 +4876,13 @@
         <v>368</v>
       </c>
       <c r="N57" s="3"/>
-      <c r="P57" s="18" t="s">
+      <c r="P57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q57" s="18" t="s">
+      <c r="Q57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R57" s="18" t="s">
+      <c r="R57" s="2" t="s">
         <v>204</v>
       </c>
       <c r="S57" s="1" t="s">
@@ -4889,7 +4891,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
     </row>
-    <row r="58" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="25" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4920,22 +4922,22 @@
       <c r="L58" s="3"/>
       <c r="M58" s="9"/>
       <c r="N58" s="3"/>
-      <c r="P58" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q58" s="18" t="s">
+      <c r="P58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R58" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S58" s="18" t="s">
+      <c r="R58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S58" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4964,22 +4966,22 @@
       <c r="L59" s="3"/>
       <c r="M59" s="9"/>
       <c r="N59" s="3"/>
-      <c r="P59" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q59" s="18" t="s">
+      <c r="P59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R59" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S59" s="18" t="s">
+      <c r="R59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S59" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -5008,22 +5010,22 @@
       <c r="L60" s="3"/>
       <c r="M60" s="9"/>
       <c r="N60" s="3"/>
-      <c r="P60" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q60" s="18" t="s">
+      <c r="P60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R60" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S60" s="18" t="s">
+      <c r="R60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -5052,22 +5054,22 @@
       <c r="L61" s="3"/>
       <c r="M61" s="9"/>
       <c r="N61" s="3"/>
-      <c r="P61" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q61" s="18" t="s">
+      <c r="P61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R61" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S61" s="18" t="s">
+      <c r="R61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S61" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -5096,22 +5098,22 @@
       <c r="L62" s="3"/>
       <c r="M62" s="9"/>
       <c r="N62" s="3"/>
-      <c r="P62" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q62" s="18" t="s">
+      <c r="P62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R62" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S62" s="18" t="s">
+      <c r="R62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S62" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -5140,22 +5142,22 @@
       <c r="L63" s="3"/>
       <c r="M63" s="9"/>
       <c r="N63" s="3"/>
-      <c r="P63" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q63" s="18" t="s">
+      <c r="P63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R63" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S63" s="18" t="s">
+      <c r="R63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S63" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -5184,22 +5186,22 @@
       <c r="L64" s="3"/>
       <c r="M64" s="9"/>
       <c r="N64" s="3"/>
-      <c r="P64" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q64" s="18" t="s">
+      <c r="P64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q64" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R64" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S64" s="18" t="s">
+      <c r="R64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S64" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -5228,22 +5230,22 @@
       <c r="L65" s="3"/>
       <c r="M65" s="9"/>
       <c r="N65" s="3"/>
-      <c r="P65" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q65" s="18" t="s">
+      <c r="P65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q65" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R65" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S65" s="18" t="s">
+      <c r="R65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
     </row>
-    <row r="66" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="50" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -5274,22 +5276,22 @@
       <c r="L66" s="3"/>
       <c r="M66" s="9"/>
       <c r="N66" s="3"/>
-      <c r="P66" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q66" s="18" t="s">
+      <c r="P66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R66" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S66" s="18" t="s">
+      <c r="R66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S66" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -5325,22 +5327,22 @@
       <c r="O67" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="P67" s="18" t="s">
+      <c r="P67" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q67" s="18" t="s">
+      <c r="Q67" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R67" s="18" t="s">
+      <c r="R67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S67" s="18" t="s">
+      <c r="S67" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
     </row>
-    <row r="68" spans="1:21" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="294.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -5373,13 +5375,13 @@
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="3"/>
-      <c r="P68" s="18" t="s">
+      <c r="P68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q68" s="18" t="s">
+      <c r="Q68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R68" s="18" t="s">
+      <c r="R68" s="2" t="s">
         <v>204</v>
       </c>
       <c r="S68" s="1" t="s">
@@ -5388,7 +5390,7 @@
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
     </row>
-    <row r="69" spans="1:21" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -5423,22 +5425,22 @@
         <v>398</v>
       </c>
       <c r="N69" s="3"/>
-      <c r="P69" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q69" s="18" t="s">
+      <c r="P69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q69" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="R69" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S69" s="18" t="s">
+      <c r="R69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S69" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
     </row>
-    <row r="70" spans="1:21" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -5471,13 +5473,13 @@
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="3"/>
-      <c r="P70" s="18" t="s">
+      <c r="P70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q70" s="18" t="s">
+      <c r="Q70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R70" s="18" t="s">
+      <c r="R70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S70" s="1" t="s">
@@ -5486,7 +5488,7 @@
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
     </row>
-    <row r="71" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="50" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -5517,22 +5519,22 @@
       <c r="L71" s="3"/>
       <c r="M71" s="9"/>
       <c r="N71" s="3"/>
-      <c r="P71" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q71" s="18" t="s">
+      <c r="P71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q71" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R71" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S71" s="18" t="s">
+      <c r="R71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S71" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
     </row>
-    <row r="72" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="50" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -5563,22 +5565,22 @@
       <c r="L72" s="3"/>
       <c r="M72" s="9"/>
       <c r="N72" s="3"/>
-      <c r="P72" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q72" s="18" t="s">
+      <c r="P72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q72" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R72" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S72" s="18" t="s">
+      <c r="R72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S72" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
     </row>
-    <row r="73" spans="1:21" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -5609,16 +5611,16 @@
       <c r="L73" s="3"/>
       <c r="M73" s="9"/>
       <c r="N73" s="3"/>
-      <c r="P73" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q73" s="18" t="s">
+      <c r="P73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q73" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="R73" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S73" s="18" t="s">
+      <c r="R73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S73" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T73" s="15" t="s">
@@ -5626,7 +5628,7 @@
       </c>
       <c r="U73" s="3"/>
     </row>
-    <row r="74" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -5657,22 +5659,22 @@
       <c r="L74" s="3"/>
       <c r="M74" s="9"/>
       <c r="N74" s="3"/>
-      <c r="P74" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q74" s="18" t="s">
+      <c r="P74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q74" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R74" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S74" s="18" t="s">
+      <c r="R74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S74" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
     </row>
-    <row r="75" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -5703,22 +5705,22 @@
       <c r="L75" s="3"/>
       <c r="M75" s="9"/>
       <c r="N75" s="3"/>
-      <c r="P75" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q75" s="18" t="s">
+      <c r="P75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R75" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S75" s="18" t="s">
+      <c r="R75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S75" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -5749,22 +5751,22 @@
       <c r="L76" s="3"/>
       <c r="M76" s="9"/>
       <c r="N76" s="3"/>
-      <c r="P76" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q76" s="18" t="s">
+      <c r="P76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q76" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R76" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S76" s="18" t="s">
+      <c r="R76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S76" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
     </row>
-    <row r="77" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="75" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -5795,22 +5797,22 @@
       <c r="L77" s="3"/>
       <c r="M77" s="9"/>
       <c r="N77" s="3"/>
-      <c r="P77" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q77" s="18" t="s">
+      <c r="P77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q77" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R77" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S77" s="18" t="s">
+      <c r="R77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S77" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
     </row>
-    <row r="78" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -5841,22 +5843,22 @@
       <c r="L78" s="3"/>
       <c r="M78" s="9"/>
       <c r="N78" s="3"/>
-      <c r="P78" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q78" s="18" t="s">
+      <c r="P78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q78" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="R78" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S78" s="18" t="s">
+      <c r="R78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S78" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
     </row>
-    <row r="79" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -5891,22 +5893,22 @@
         <v>405</v>
       </c>
       <c r="N79" s="3"/>
-      <c r="P79" s="18" t="s">
+      <c r="P79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q79" s="18" t="s">
+      <c r="Q79" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R79" s="18" t="s">
+      <c r="R79" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S79" s="18" t="s">
+      <c r="S79" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
     </row>
-    <row r="80" spans="1:21" ht="186" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="168.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -5944,13 +5946,13 @@
       <c r="O80" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="P80" s="18" t="s">
+      <c r="P80" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q80" s="18" t="s">
+      <c r="Q80" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R80" s="18" t="s">
+      <c r="R80" s="2" t="s">
         <v>204</v>
       </c>
       <c r="S80" s="1" t="s">
@@ -5959,7 +5961,7 @@
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
     </row>
-    <row r="81" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="25" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -5990,22 +5992,22 @@
       <c r="L81" s="3"/>
       <c r="M81" s="9"/>
       <c r="N81" s="3"/>
-      <c r="P81" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q81" s="18" t="s">
+      <c r="P81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q81" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R81" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S81" s="18" t="s">
+      <c r="R81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S81" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
     </row>
-    <row r="82" spans="1:21" ht="102" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="100" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -6040,22 +6042,22 @@
         <v>411</v>
       </c>
       <c r="N82" s="3"/>
-      <c r="P82" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q82" s="18" t="s">
+      <c r="P82" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q82" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="R82" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S82" s="18" t="s">
+      <c r="R82" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S82" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -6084,22 +6086,22 @@
       <c r="L83" s="3"/>
       <c r="M83" s="9"/>
       <c r="N83" s="3"/>
-      <c r="P83" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q83" s="18" t="s">
+      <c r="P83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q83" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R83" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S83" s="18" t="s">
+      <c r="R83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S83" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -6130,16 +6132,16 @@
       <c r="L84" s="3"/>
       <c r="M84" s="9"/>
       <c r="N84" s="3"/>
-      <c r="P84" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q84" s="18" t="s">
+      <c r="P84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q84" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R84" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S84" s="18" t="s">
+      <c r="R84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S84" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T84" s="3"/>

--- a/data_processing_elements-CHS.xlsx
+++ b/data_processing_elements-CHS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelstrom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F66206E-B8AD-4495-A810-0BAA59F5F05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC856D9-B119-4842-84EA-8D292213726B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1530,10 +1530,10 @@
     <t>round(rowMeans(select(., V22_1, V22_2, V22_3), na.rm=TRUE), 2)</t>
   </si>
   <si>
-    <t>k0alder5</t>
-  </si>
-  <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>K0ALDER5</t>
   </si>
 </sst>
 </file>
@@ -2042,10 +2042,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2160,7 +2160,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="9"/>
       <c r="J2" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>290</v>
@@ -2306,7 +2306,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="9"/>
       <c r="J5" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>

--- a/data_processing_elements-CHS.xlsx
+++ b/data_processing_elements-CHS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelstrom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC856D9-B119-4842-84EA-8D292213726B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB27F3-1361-4144-8DBF-13AF9932260B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1385,11 +1385,6 @@
     <t>do you daily or nearly daily use: diabetic medication</t>
   </si>
   <si>
-    <t>case_when(m12 == 1|
-m11 == 1;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
     <t>Sub89</t>
   </si>
   <si>
@@ -1433,30 +1428,6 @@
 for how long do you watch television per day (minutes)</t>
   </si>
   <si>
-    <t>case_when(
-rowSums(mutate(.,
-temp_Sub86a = Sub86a,
-temp_Sub86b = Sub86b/60) %&gt;%
-select(temp_Sub86a, temp_Sub86b), 
-na.rm = TRUE) &lt;= 1 ~ 1L;
-rowSums(mutate(.,
-temp_Sub86a = Sub86a,
-temp_Sub86b = Sub86b/60) %&gt;%
-select(temp_Sub86a, temp_Sub86b), 
-na.rm = TRUE) &lt;= 1 ~ 1L; &lt;= 3 &amp; 
-rowSums(mutate(.,
-temp_Sub86a = Sub86a,
-temp_Sub86b = Sub86b/60) %&gt;%
-select(temp_Sub86a, temp_Sub86b), 
-na.rm = TRUE) &lt;= 1 ~ 1L; &gt; 1 ~ 2L;
-rowSums(mutate(.,
-temp_Sub86a = Sub86a,
-temp_Sub86b = Sub86b/60) %&gt;%
-select(temp_Sub86a, temp_Sub86b), 
-na.rm = TRUE) &lt;= 1 ~ 1L; &gt; 3 ~ 3L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
     <t>Variable Sub87a appears twice in your data dictionary (probably a typo, should be Sub87b). Are these variables specific to computer use outside of work hours or not?</t>
   </si>
   <si>
@@ -1534,6 +1505,29 @@
   </si>
   <si>
     <t>K0ALDER5</t>
+  </si>
+  <si>
+    <t>case_when(
+  rowSums(mutate(.,
+                 temp_Sub86a = Sub86a,
+                 temp_Sub86b = Sub86b/60) %&gt;%
+            select(temp_Sub86a, temp_Sub86b), 
+          na.rm = TRUE) &lt;= 1 ~ 1L;
+  rowSums(mutate(.,
+                 temp_Sub86a = Sub86a,
+                 temp_Sub86b = Sub86b/60) %&gt;%
+            select(temp_Sub86a, temp_Sub86b), 
+          na.rm = TRUE) &lt;= 3 ~ 2L; 
+    rowSums(mutate(.,
+                   temp_Sub86a = Sub86a,
+                   temp_Sub86b = Sub86b/60) %&gt;%
+              select(temp_Sub86a, temp_Sub86b), 
+            na.rm = TRUE) &gt; 3 ~ 3L;
+  ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when(m12 == 1| m11 == 1 ~ 1L;
+ELSE ~ NA_integer_)</t>
   </si>
 </sst>
 </file>
@@ -2042,17 +2036,17 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomRight" activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.7265625" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.7265625" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.54296875" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.453125" style="2" customWidth="1"/>
@@ -2068,7 +2062,7 @@
     <col min="16" max="16" width="12.7265625" style="2" customWidth="1"/>
     <col min="17" max="17" width="12.453125" style="2" customWidth="1"/>
     <col min="18" max="18" width="17.54296875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="19.81640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="37.36328125" style="2" customWidth="1"/>
     <col min="20" max="21" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
@@ -2160,7 +2154,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="9"/>
       <c r="J2" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>290</v>
@@ -2226,7 +2220,7 @@
         <v>33</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -2306,7 +2300,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="9"/>
       <c r="J5" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2374,7 +2368,7 @@
         <v>39</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2797,7 +2791,7 @@
         <v>26</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S15" s="2">
         <v>2</v>
@@ -3313,7 +3307,7 @@
         <v>33</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -3368,7 +3362,7 @@
         <v>33</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -4197,7 +4191,7 @@
         <v>33</v>
       </c>
       <c r="S43" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
@@ -4841,7 +4835,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
     </row>
-    <row r="57" spans="1:21" ht="70.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4886,7 +4880,7 @@
         <v>204</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
@@ -5316,16 +5310,16 @@
       <c r="H67" s="3"/>
       <c r="I67" s="9"/>
       <c r="J67" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="3"/>
       <c r="O67" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>25</v>
@@ -5367,11 +5361,11 @@
         <v>234</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="3"/>
@@ -5385,7 +5379,7 @@
         <v>204</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
@@ -5415,14 +5409,14 @@
         <v>237</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="M69" s="9" t="s">
         <v>397</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>398</v>
       </c>
       <c r="N69" s="3"/>
       <c r="P69" s="2" t="s">
@@ -5440,7 +5434,7 @@
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
     </row>
-    <row r="70" spans="1:21" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="322.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -5465,11 +5459,11 @@
         <v>240</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="3"/>
@@ -5483,7 +5477,7 @@
         <v>33</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
@@ -5624,7 +5618,7 @@
         <v>59</v>
       </c>
       <c r="T73" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="U73" s="3"/>
     </row>
@@ -5883,14 +5877,14 @@
         <v>270</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N79" s="3"/>
       <c r="P79" s="2" t="s">
@@ -5933,18 +5927,18 @@
         <v>188</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M80" s="9" t="s">
         <v>368</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>25</v>
@@ -5956,7 +5950,7 @@
         <v>204</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
@@ -6036,10 +6030,10 @@
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N82" s="3"/>
       <c r="P82" s="2" t="s">

--- a/data_processing_elements-CHS.xlsx
+++ b/data_processing_elements-CHS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelstrom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB27F3-1361-4144-8DBF-13AF9932260B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0393619-D475-4B7A-8064-1944047A6B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -2039,7 +2039,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="M70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R70" sqref="R70"/>
+      <selection pane="bottomRight" activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2061,7 +2061,7 @@
     <col min="15" max="15" width="21.26953125" style="2" customWidth="1"/>
     <col min="16" max="16" width="12.7265625" style="2" customWidth="1"/>
     <col min="17" max="17" width="12.453125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.54296875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.36328125" style="2" customWidth="1"/>
     <col min="19" max="19" width="37.36328125" style="2" customWidth="1"/>
     <col min="20" max="21" width="9.1796875" style="2"/>
   </cols>
@@ -4148,7 +4148,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
     </row>
-    <row r="43" spans="1:21" ht="71" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>49</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>418</v>
@@ -5902,7 +5902,7 @@
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
     </row>
-    <row r="80" spans="1:21" ht="168.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" ht="140" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>79</v>
       </c>

--- a/data_processing_elements-CHS.xlsx
+++ b/data_processing_elements-CHS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelstrom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0393619-D475-4B7A-8064-1944047A6B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6988A27-236F-40AF-B0D6-BF83F70043F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="468">
   <si>
     <t>index</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>comment_question_for_cohort</t>
-  </si>
-  <si>
-    <t>response_from_cohort</t>
   </si>
   <si>
     <t>adm_id</t>
@@ -573,12 +570,6 @@
     <t>Frequency of alcohol consumption</t>
   </si>
   <si>
-    <t>0 = Never/almost never ; 
-1 = Monthly ; 
-2 = Weekly ; 
-3 = Daily/almost daily</t>
-  </si>
-  <si>
     <t>smk_smoking_status</t>
   </si>
   <si>
@@ -597,11 +588,6 @@
   </si>
   <si>
     <t>Current smoking frequency</t>
-  </si>
-  <si>
-    <t>1 = Monthly ;
-2 = Weekly ;
-3 = Daily/almost daily ;</t>
   </si>
   <si>
     <t>smk_smoking_quantity</t>
@@ -1240,13 +1226,6 @@
 Sub59r_2</t>
   </si>
   <si>
-    <t>Number of 33 cl;
-Glass of 121/2 cl;
-Glass of 121/2 cl;
-Glass of 8 cl;
-Genst. á 4 cl;</t>
-  </si>
-  <si>
     <t>Sub59n_1;
 Sub59o_1;
 Sub59p_1;
@@ -1392,19 +1371,6 @@
   </si>
   <si>
     <t>Wording was, How many hours of sleep do you typically get on a weekday</t>
-  </si>
-  <si>
-    <t>case_when( 
-Sub89 &gt;= 0 &amp;Sub89 &lt; 6.25 ~ 1L;
-Sub89 &gt;= 6.25 &amp;Sub89 &lt; 6.75 ~ 2L;
-Sub89 &gt;= 6.75 &amp;Sub89 &lt; 7.25 ~ 3L;
-Sub89 &gt;= 7.25 &amp;Sub89 &lt; 7.75 ~ 4L;
-Sub89 &gt;= 7.75 &amp;Sub89 &lt; 8.25 ~ 5L;
-Sub89 &gt;= 8.25 &amp;Sub89 &lt; 8.75 ~ 6L;
-Sub89 &gt;= 8.75 &amp;Sub89 &lt; 9.25 ~ 7L;
-Sub89 &gt;= 9.25 &amp;Sub89 &lt; 9.75 ~ 8L;
-Sub89 &gt;= 9.75 ~ 10L;
-ELSE ~ NA_integer_)</t>
   </si>
   <si>
     <t>Sub99b</t>
@@ -1483,15 +1449,6 @@
 4=strenouos physical activity &gt;4 hours/week or hard physical activity several times per week</t>
   </si>
   <si>
-    <t>(Sub59n_2 + Sub59o_2 + Sub59p_2 + Sub59q_2 + Sub59r_2)*7*12</t>
-  </si>
-  <si>
-    <t>as.Date(as.character(us), format = "%d%m%y")</t>
-  </si>
-  <si>
-    <t>recode(0=0; 1=NA; 2=NA; 3=3; ELSE=NA)</t>
-  </si>
-  <si>
     <t>paste</t>
   </si>
   <si>
@@ -1501,33 +1458,246 @@
     <t>round(rowMeans(select(., V22_1, V22_2, V22_3), na.rm=TRUE), 2)</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>K0ALDER5</t>
+    <t>Construct label</t>
+  </si>
+  <si>
+    <t>Data cleaning</t>
+  </si>
+  <si>
+    <t>Publications</t>
+  </si>
+  <si>
+    <t>Variable type</t>
+  </si>
+  <si>
+    <t>internal_comment</t>
+  </si>
+  <si>
+    <t>validation_comment</t>
+  </si>
+  <si>
+    <t>response_from_cohort_step1</t>
+  </si>
+  <si>
+    <t>response_to_cohort_step1</t>
+  </si>
+  <si>
+    <t>response_from_cohort_step2</t>
+  </si>
+  <si>
+    <t>response_to_cohort_step2</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>recheck date format</t>
+  </si>
+  <si>
+    <t>Please confirm the date format</t>
+  </si>
+  <si>
+    <t>datemonthyear</t>
+  </si>
+  <si>
+    <t>For the variable "us" (questionnaire completion date), we would need the full date format ex:dd-mm-yyyy</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>Faar;
+Fmd;
+Fdag;
+us</t>
+  </si>
+  <si>
+    <t>birth year;
+birth month;
+birth day;
+examination date</t>
+  </si>
+  <si>
+    <t>Please confirm the completion date format</t>
+  </si>
+  <si>
+    <t>Birth year: full four digits year. Birth month: number of month in the calendar, e.g. 1 for january. Birthday: date of birth, e.g. 1 the first day in the month. Examination date: datemonthyear</t>
+  </si>
+  <si>
+    <t>recode(0=0; 1=NA; 2=NA; 3=NA; 4=3; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>recoded cat 4 was not included</t>
+  </si>
+  <si>
+    <t>Please confirm/adjust/comment the recoding, we are not 100% sure to understand how the education system translate to the categories desired for harmonization. Can you provide us with more information regarding what is the vocational school?</t>
+  </si>
+  <si>
+    <t>changed so no education = 0, 1-3 years of education = 1, &gt;3 years education =2, university degree = 3</t>
+  </si>
+  <si>
+    <t>What does 1-3 years of education = 1 and &gt;3 years education =2 corresponds to, is it the total completed years of education?</t>
+  </si>
+  <si>
+    <t>variables is called ethnicity but not sure it really refers to ethnicity, more like nationality</t>
+  </si>
+  <si>
+    <t>ethnicity are registered at an objective examination, where the staff memeber registers the participant in one of the following categories. 1=only danish, 2=mix of scandinavian races, 3=mix of european races, 4=turkish, 5=pakistani/indian/Sri Lankian, 6=arabic/iranian, 7=other (aisian, african, greenlandic, mix)</t>
+  </si>
+  <si>
+    <t>Impossible to harmonize</t>
+  </si>
+  <si>
+    <t>question about employment in the questionnaire but not in the dd</t>
+  </si>
+  <si>
+    <t>no, unfortunately not</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>very limited question about employment desc in the questionnaire but not in the dd
+Available employment desc: Independent, Skilled, Unskilled, Official, Homeworker (spouse), Student,Out of work (unemployed or retired)</t>
+  </si>
+  <si>
+    <t>question about employment/retirement in the questionnaire but not in the dd
+But even if we used the question in the questionnaire, it would be incompatible (q. 77 in the questionnaire)</t>
+  </si>
+  <si>
+    <t>can't say married because co-habitating is included with married in the dd</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>yes, confirmed</t>
+  </si>
+  <si>
+    <t>"1=0-1 hour" recoded as "0 _= Non-fasted"
+Confirm the recoding</t>
+  </si>
+  <si>
+    <t>x10^12/L</t>
+  </si>
+  <si>
+    <t>no unit but probably the same as cholesterol</t>
+  </si>
+  <si>
+    <t>confirm that 1-2 times per week is rarely</t>
+  </si>
+  <si>
+    <t>beer;
+white wine;
+red whine;
+hard wine;
+spirit</t>
+  </si>
+  <si>
+    <t>Number of 33 cl;
+Glass of 12 1/2 cl;
+Glass of 12 1/2 cl;
+Glass of 8 cl;
+Genst. á 4 cl;</t>
+  </si>
+  <si>
+    <t>Mean gram of alcohol per standard drink in Denmark was used (12g)
+https://iard.org/science-resources/detail/drinking-guidelines-general-population</t>
+  </si>
+  <si>
+    <t>rowSums(select(., Sub59n_2, Sub59o_2, Sub59p_2, Sub59q_2, Sub59r_2), na.rm = TRUE)*7*12</t>
+  </si>
+  <si>
+    <t>review if 1 missing makes everything missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please confirm the units for each type of alcohol. It was different in the questionnaire and the data dictionary. 
+</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>0 = Never/almost never ; 
+1 = Weekly ; 
+2 = Monthly ; 
+3 = Daily/almost daily</t>
+  </si>
+  <si>
+    <t>1 = Occasionaly;
+2 = Daily/almost daily ;</t>
+  </si>
+  <si>
+    <t>osteoporosis</t>
   </si>
   <si>
     <t>case_when(
-  rowSums(mutate(.,
-                 temp_Sub86a = Sub86a,
-                 temp_Sub86b = Sub86b/60) %&gt;%
-            select(temp_Sub86a, temp_Sub86b), 
-          na.rm = TRUE) &lt;= 1 ~ 1L;
-  rowSums(mutate(.,
-                 temp_Sub86a = Sub86a,
-                 temp_Sub86b = Sub86b/60) %&gt;%
-            select(temp_Sub86a, temp_Sub86b), 
-          na.rm = TRUE) &lt;= 3 ~ 2L; 
-    rowSums(mutate(.,
-                   temp_Sub86a = Sub86a,
-                   temp_Sub86b = Sub86b/60) %&gt;%
-              select(temp_Sub86a, temp_Sub86b), 
-            na.rm = TRUE) &gt; 3 ~ 3L;
-  ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>case_when(m12 == 1| m11 == 1 ~ 1L;
+m12 == 1|
+m11 == 1;
 ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when( 
+Sub89 &gt;= 0 &amp;Sub89 &lt; 6.25 ~ 1L;
+Sub89 &gt;= 6.25 &amp;Sub89 &lt; 6.75 ~ 2L;
+Sub89 &gt;= 6.75 &amp;Sub89 &lt; 7.25 ~ 3L;
+Sub89 &gt;= 7.25 &amp;Sub89 &lt; 7.75 ~ 4L;
+Sub89 &gt;= 7.75 &amp;Sub89 &lt; 8.25 ~ 5L;
+Sub89 &gt;= 8.25 &amp;Sub89 &lt; 8.75 ~ 6L;
+Sub89 &gt;= 8.75 &amp;Sub89 &lt; 9.25 ~ 7L;
+Sub89 &gt;= 9.25 &amp;Sub89 &lt; 9.75 ~ 8L;
+Sub89 &gt;= 9.75 ~ 9L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when(
+is.na(Sub86a) &amp; is.na(Sub86b) ~ NA_integer_;
+rowSums(mutate(.,
+temp_Sub86a = Sub86a,
+temp_Sub86b = Sub86b/60) %&gt;%
+select(temp_Sub86a, temp_Sub86b), 
+na.rm = TRUE) &lt;= 1 ~ 1L;
+rowSums(mutate(.,
+temp_Sub86a = Sub86a,
+temp_Sub86b = Sub86b/60) %&gt;%
+select(temp_Sub86a, temp_Sub86b), 
+na.rm = TRUE) &lt;= 1 ~ 1L; &lt;= 3 &amp; 
+rowSums(mutate(.,
+temp_Sub86a = Sub86a,
+temp_Sub86b = Sub86b/60) %&gt;%
+select(temp_Sub86a, temp_Sub86b), 
+na.rm = TRUE) &lt;= 1 ~ 1L; &gt; 1 ~ 2L;
+rowSums(mutate(.,
+temp_Sub86a = Sub86a,
+temp_Sub86b = Sub86b/60) %&gt;%
+select(temp_Sub86a, temp_Sub86b), 
+na.rm = TRUE) &lt;= 1 ~ 1L; &gt; 3 ~ 3L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>check when both input value = na</t>
+  </si>
+  <si>
+    <t>computer time use are not specified to weekdays nor domain, thus it is all use of computers participants are asked to report. One reason for the double vaiable could be that the participants are asked to report time use in hours and minutes</t>
+  </si>
+  <si>
+    <t>not an exhaustive list of sports, can't say no, or do we say no with a comment?</t>
+  </si>
+  <si>
+    <t>inactive includes physical activity less than 2 hours/week (Sub91), do we still populate and leave a comment, but 2 hours/week i a lot to be coded as no PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or 1=NA?
+questionnaire also has:
+2 = Light physical activity from 2 - 4 hours per week
+e.g. walks, bike rides, light gardening, light exercise gymnastics
+</t>
+  </si>
+  <si>
+    <t>floor(as.numeric(difftime(format(as.Date(us, format = "%d/%m/%Y"), "%Y-%m-%d"), as.Date(paste0(Faar, "-", Fmd, "-", Fdag), format = "%Y-%m-%d"), units = "days"))/365.25)</t>
+  </si>
+  <si>
+    <t>format(as.Date(us, format = "%d/%m/%Y"), "%Y-%m-%d")</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1692,6 +1862,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2033,40 +2206,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8173B-75E7-48BF-A0E5-5399D58BE189}">
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q70" sqref="Q70"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.54296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="2"/>
-    <col min="8" max="8" width="8.54296875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="36.7265625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="25.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.453125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.1796875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="31.81640625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="7.7265625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.26953125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.36328125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="37.36328125" style="2" customWidth="1"/>
-    <col min="20" max="21" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="8.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="37.42578125" style="2" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="2"/>
+    <col min="22" max="22" width="29.140625" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" customWidth="1"/>
+    <col min="24" max="24" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2101,4045 +2277,4247 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="R1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="S1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="T1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="U1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="X1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="9"/>
       <c r="J2" s="12" t="s">
-        <v>416</v>
+        <v>286</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="9"/>
       <c r="N2" s="3"/>
       <c r="P2" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="V2" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="9"/>
       <c r="N3" s="3"/>
       <c r="P3" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" t="s">
+        <v>467</v>
+      </c>
+      <c r="X3" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="3"/>
-      <c r="M4" s="9" t="s">
-        <v>294</v>
-      </c>
+      <c r="M4" s="9"/>
       <c r="N4" s="3"/>
       <c r="P4" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="9"/>
       <c r="J5" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="K5" s="3"/>
+        <v>424</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>425</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="9"/>
       <c r="N5" s="3"/>
       <c r="P5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" ht="62.5" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="171.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>298</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="L6" s="3"/>
       <c r="M6" s="9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N6" s="3"/>
       <c r="P6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" ht="112.5" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" t="s">
+        <v>428</v>
+      </c>
+      <c r="X6" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="171.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="9" t="s">
-        <v>302</v>
-      </c>
+      <c r="M7" s="9"/>
       <c r="N7" s="3"/>
       <c r="P7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>59</v>
+        <v>423</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" ht="25" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V7" t="s">
+        <v>58</v>
+      </c>
+      <c r="W7" t="s">
+        <v>58</v>
+      </c>
+      <c r="X7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="9"/>
       <c r="N8" s="3"/>
-      <c r="P8" s="2" t="s">
+      <c r="T8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:21" ht="25" x14ac:dyDescent="0.35">
+      <c r="V8" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" t="s">
+        <v>58</v>
+      </c>
+      <c r="X8" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="9"/>
       <c r="N9" s="3"/>
-      <c r="P9" s="2" t="s">
+      <c r="T9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="9"/>
       <c r="J10" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="9"/>
       <c r="N10" s="3"/>
-      <c r="P10" s="2" t="s">
+      <c r="T10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="9"/>
       <c r="J11" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="9"/>
       <c r="N11" s="3"/>
-      <c r="P11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T11" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" ht="25" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X11" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y11" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="345" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="9"/>
       <c r="N12" s="3"/>
-      <c r="P12" s="2" t="s">
+      <c r="T12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" ht="50" x14ac:dyDescent="0.35">
+      <c r="V12" t="s">
+        <v>58</v>
+      </c>
+      <c r="W12" t="s">
+        <v>58</v>
+      </c>
+      <c r="X12" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
-        <v>307</v>
-      </c>
+      <c r="L13" s="3"/>
       <c r="M13" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" ht="50" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" t="s">
         <v>306</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" ht="25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="9"/>
       <c r="N15" s="3"/>
-      <c r="P15" s="2" t="s">
+      <c r="T15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="S15" s="2">
+      <c r="V15" t="s">
+        <v>405</v>
+      </c>
+      <c r="W15">
         <v>2</v>
       </c>
-      <c r="T15" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Y15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>442</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="N16" s="3"/>
       <c r="P16" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" ht="25" x14ac:dyDescent="0.35">
+      <c r="V16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="P17" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V17" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" t="s">
         <v>311</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="Y17" t="s">
         <v>312</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="T17" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AA17" t="s">
+        <v>443</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="9"/>
       <c r="J18" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="N18" s="3"/>
       <c r="P18" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="1:21" ht="25" x14ac:dyDescent="0.35">
+      <c r="V18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="P19" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" t="s">
         <v>316</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="T19" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Y19" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>443</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="9"/>
       <c r="J20" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="N20" s="3"/>
       <c r="P20" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V20" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="9"/>
       <c r="J21" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="N21" s="3"/>
       <c r="P21" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:21" ht="25" x14ac:dyDescent="0.35">
+      <c r="V21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J22" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="P22" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V22" t="s">
+        <v>32</v>
+      </c>
+      <c r="W22" t="s">
         <v>322</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="9"/>
       <c r="J23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="9"/>
       <c r="N23" s="3"/>
-      <c r="P23" s="2" t="s">
+      <c r="T23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V23" t="s">
+        <v>58</v>
+      </c>
+      <c r="W23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="9"/>
       <c r="J24" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="9"/>
       <c r="N24" s="3"/>
-      <c r="P24" s="2" t="s">
+      <c r="T24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+      <c r="V24" t="s">
+        <v>58</v>
+      </c>
+      <c r="W24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="9"/>
       <c r="J25" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="N25" s="3"/>
       <c r="P25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>49</v>
+        <v>418</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V25" t="s">
+        <v>32</v>
+      </c>
+      <c r="W25" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="9"/>
       <c r="J26" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="N26" s="3"/>
       <c r="P26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>49</v>
+        <v>418</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="9"/>
       <c r="J27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="9"/>
       <c r="N27" s="3"/>
-      <c r="P27" s="2" t="s">
+      <c r="T27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V27" t="s">
+        <v>58</v>
+      </c>
+      <c r="W27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="9"/>
       <c r="J28" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="9"/>
       <c r="N28" s="3"/>
-      <c r="P28" s="2" t="s">
+      <c r="T28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-    </row>
-    <row r="29" spans="1:21" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="V28" t="s">
+        <v>58</v>
+      </c>
+      <c r="W28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="228.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>332</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="L29" s="3"/>
       <c r="M29" s="9" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N29" s="3"/>
       <c r="P29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V29" t="s">
+        <v>38</v>
+      </c>
+      <c r="W29" t="s">
+        <v>331</v>
+      </c>
+      <c r="X29" s="21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="9"/>
       <c r="J30" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="9"/>
       <c r="N30" s="3"/>
       <c r="P30" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T30" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="U30" s="3"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V30" t="s">
+        <v>43</v>
+      </c>
+      <c r="W30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="9"/>
       <c r="J31" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="9"/>
       <c r="N31" s="3"/>
-      <c r="P31" s="2" t="s">
+      <c r="T31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V31" t="s">
+        <v>58</v>
+      </c>
+      <c r="W31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="9"/>
       <c r="J32" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="3" t="s">
-        <v>340</v>
-      </c>
+      <c r="N32" s="3"/>
       <c r="P32" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V32" t="s">
+        <v>43</v>
+      </c>
+      <c r="W32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="9"/>
       <c r="J33" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="9"/>
       <c r="N33" s="3"/>
       <c r="P33" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="T33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T33" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="U33" s="3"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V33" t="s">
+        <v>43</v>
+      </c>
+      <c r="W33" t="s">
+        <v>43</v>
+      </c>
+      <c r="X33" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>443</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="9"/>
       <c r="J34" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="3" t="s">
-        <v>340</v>
-      </c>
+      <c r="N34" s="3"/>
       <c r="P34" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-    </row>
-    <row r="35" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+      <c r="V34" t="s">
+        <v>43</v>
+      </c>
+      <c r="W34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="9"/>
       <c r="J35" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>287</v>
-      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
       <c r="P35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>49</v>
+        <v>418</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V35" t="s">
+        <v>32</v>
+      </c>
+      <c r="W35" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="9"/>
       <c r="J36" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="3" t="s">
-        <v>340</v>
-      </c>
+      <c r="N36" s="3"/>
       <c r="P36" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V36" t="s">
+        <v>43</v>
+      </c>
+      <c r="W36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="9"/>
       <c r="J37" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="3" t="s">
-        <v>353</v>
-      </c>
+      <c r="N37" s="3"/>
       <c r="P37" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V37" t="s">
+        <v>43</v>
+      </c>
+      <c r="W37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="9"/>
       <c r="J38" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="9"/>
       <c r="N38" s="3"/>
-      <c r="P38" s="2" t="s">
+      <c r="T38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-    </row>
-    <row r="39" spans="1:21" ht="100" x14ac:dyDescent="0.35">
+      <c r="V38" t="s">
+        <v>58</v>
+      </c>
+      <c r="W38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" ht="228.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L39" s="3"/>
-      <c r="M39" s="9" t="s">
-        <v>356</v>
-      </c>
+      <c r="M39" s="9"/>
       <c r="N39" s="3"/>
       <c r="P39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W39" t="s">
+        <v>354</v>
+      </c>
+      <c r="X39" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="9"/>
       <c r="J40" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="9"/>
       <c r="N40" s="3"/>
-      <c r="P40" s="2" t="s">
+      <c r="T40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="1:21" ht="100" x14ac:dyDescent="0.35">
+      <c r="V40" t="s">
+        <v>58</v>
+      </c>
+      <c r="W40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="228.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K41" s="3"/>
-      <c r="L41" s="3" t="s">
-        <v>359</v>
-      </c>
+      <c r="L41" s="3"/>
       <c r="M41" s="9" t="s">
         <v>356</v>
       </c>
       <c r="N41" s="3"/>
       <c r="P41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-    </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V41" t="s">
+        <v>38</v>
+      </c>
+      <c r="W41" t="s">
+        <v>354</v>
+      </c>
+      <c r="X41" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="9"/>
       <c r="J42" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="9"/>
       <c r="N42" s="3"/>
-      <c r="P42" s="2" t="s">
+      <c r="T42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-    </row>
-    <row r="43" spans="1:21" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V42" t="s">
+        <v>58</v>
+      </c>
+      <c r="W42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="9"/>
       <c r="J43" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="K43" s="3"/>
+        <v>357</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>448</v>
+      </c>
       <c r="L43" s="3"/>
-      <c r="M43" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="M43" s="9"/>
       <c r="N43" s="3"/>
       <c r="P43" s="16" t="s">
-        <v>25</v>
+        <v>418</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="R43" s="16" t="s">
-        <v>33</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="R43" s="16"/>
       <c r="S43" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-    </row>
-    <row r="44" spans="1:21" ht="322.5" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V43" t="s">
+        <v>32</v>
+      </c>
+      <c r="W43" t="s">
+        <v>451</v>
+      </c>
+      <c r="X43" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y43" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="225" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="E44" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="9" t="s">
-        <v>171</v>
+        <v>455</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3" t="s">
-        <v>363</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="L44" s="3"/>
       <c r="M44" s="9" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="N44" s="3"/>
       <c r="P44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-    </row>
-    <row r="45" spans="1:21" ht="112.5" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V44" t="s">
+        <v>201</v>
+      </c>
+      <c r="W44" s="21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K45" s="3"/>
-      <c r="L45" s="3" t="s">
-        <v>367</v>
-      </c>
+      <c r="L45" s="3"/>
       <c r="M45" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="N45" s="3"/>
       <c r="P45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-    </row>
-    <row r="46" spans="1:21" ht="37.5" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V45" t="s">
+        <v>201</v>
+      </c>
+      <c r="W45" s="21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="9" t="s">
-        <v>178</v>
+        <v>456</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K46" s="3"/>
-      <c r="L46" s="3" t="s">
-        <v>367</v>
-      </c>
+      <c r="L46" s="3"/>
       <c r="M46" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U46" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U46" s="3"/>
-    </row>
-    <row r="47" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+      <c r="V46" t="s">
+        <v>58</v>
+      </c>
+      <c r="W46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" ht="102" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="9"/>
       <c r="J47" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K47" s="3"/>
-      <c r="L47" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="M47" s="9"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="9" t="s">
+        <v>367</v>
+      </c>
       <c r="N47" s="3"/>
       <c r="P47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-    </row>
-    <row r="48" spans="1:21" ht="50" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V47" t="s">
+        <v>32</v>
+      </c>
+      <c r="W47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="9"/>
       <c r="N48" s="3"/>
-      <c r="P48" s="2" t="s">
+      <c r="T48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-    </row>
-    <row r="49" spans="1:21" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="V48" t="s">
+        <v>58</v>
+      </c>
+      <c r="W48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K49" s="3"/>
-      <c r="L49" s="3" t="s">
-        <v>374</v>
-      </c>
+      <c r="L49" s="3"/>
       <c r="M49" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N49" s="3"/>
       <c r="P49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>204</v>
+        <v>423</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-    </row>
-    <row r="50" spans="1:21" ht="56.5" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V49" t="s">
+        <v>201</v>
+      </c>
+      <c r="W49" s="21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K50" s="3"/>
-      <c r="L50" s="3" t="s">
-        <v>377</v>
-      </c>
+      <c r="L50" s="3"/>
       <c r="M50" s="9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="N50" s="3"/>
       <c r="P50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>204</v>
+        <v>423</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-    </row>
-    <row r="51" spans="1:21" ht="25" x14ac:dyDescent="0.35">
+        <v>457</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V50" t="s">
+        <v>201</v>
+      </c>
+      <c r="W50" s="21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K51" s="3"/>
-      <c r="L51" s="3" t="s">
-        <v>380</v>
-      </c>
+      <c r="L51" s="3"/>
       <c r="M51" s="9" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="N51" s="3"/>
-      <c r="O51" s="3" t="s">
-        <v>381</v>
-      </c>
+      <c r="O51" s="3"/>
       <c r="P51" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-    </row>
-    <row r="52" spans="1:21" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="V51" t="s">
+        <v>38</v>
+      </c>
+      <c r="W51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="9"/>
       <c r="N52" s="3"/>
-      <c r="P52" s="2" t="s">
+      <c r="T52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-    </row>
-    <row r="53" spans="1:21" ht="25" x14ac:dyDescent="0.35">
+      <c r="V52" t="s">
+        <v>58</v>
+      </c>
+      <c r="W52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K53" s="3"/>
-      <c r="L53" s="3" t="s">
-        <v>383</v>
-      </c>
+      <c r="L53" s="3"/>
       <c r="M53" s="9" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="N53" s="3"/>
       <c r="P53" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U53" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-    </row>
-    <row r="54" spans="1:21" ht="25" x14ac:dyDescent="0.35">
+      <c r="V53" t="s">
+        <v>38</v>
+      </c>
+      <c r="W53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="9"/>
       <c r="N54" s="3"/>
-      <c r="P54" s="2" t="s">
+      <c r="T54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-    </row>
-    <row r="55" spans="1:21" ht="25" x14ac:dyDescent="0.35">
+      <c r="V54" t="s">
+        <v>58</v>
+      </c>
+      <c r="W54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K55" s="3"/>
-      <c r="L55" s="3" t="s">
-        <v>385</v>
-      </c>
+      <c r="L55" s="3"/>
       <c r="M55" s="9" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="N55" s="3"/>
       <c r="P55" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U55" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q55" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="1:21" ht="84.5" x14ac:dyDescent="0.35">
+      <c r="V55" t="s">
+        <v>38</v>
+      </c>
+      <c r="W55" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K56" s="3"/>
-      <c r="L56" s="3" t="s">
-        <v>387</v>
-      </c>
+      <c r="L56" s="3"/>
       <c r="M56" s="9" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="N56" s="3"/>
       <c r="P56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="1:21" ht="28.5" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="S56" s="1"/>
+      <c r="T56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V56" t="s">
+        <v>201</v>
+      </c>
+      <c r="W56" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K57" s="3"/>
-      <c r="L57" s="3" t="s">
-        <v>390</v>
-      </c>
+      <c r="L57" s="3"/>
       <c r="M57" s="9" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="N57" s="3"/>
       <c r="P57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-    </row>
-    <row r="58" spans="1:21" ht="25" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="S57" s="1"/>
+      <c r="T57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V57" t="s">
+        <v>201</v>
+      </c>
+      <c r="W57" s="21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="9"/>
       <c r="N58" s="3"/>
-      <c r="P58" s="2" t="s">
+      <c r="T58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V58" t="s">
+        <v>58</v>
+      </c>
+      <c r="W58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="9"/>
       <c r="J59" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="9"/>
       <c r="N59" s="3"/>
-      <c r="P59" s="2" t="s">
+      <c r="T59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q59" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V59" t="s">
+        <v>58</v>
+      </c>
+      <c r="W59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="9"/>
       <c r="J60" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="9"/>
       <c r="N60" s="3"/>
-      <c r="P60" s="2" t="s">
+      <c r="T60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V60" t="s">
+        <v>58</v>
+      </c>
+      <c r="W60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="9"/>
       <c r="J61" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="9"/>
       <c r="N61" s="3"/>
-      <c r="P61" s="2" t="s">
+      <c r="T61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V61" t="s">
+        <v>58</v>
+      </c>
+      <c r="W61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="9"/>
       <c r="J62" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="9"/>
       <c r="N62" s="3"/>
-      <c r="P62" s="2" t="s">
+      <c r="T62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U62" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R62" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S62" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V62" t="s">
+        <v>58</v>
+      </c>
+      <c r="W62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="9"/>
       <c r="J63" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="9"/>
       <c r="N63" s="3"/>
-      <c r="P63" s="2" t="s">
+      <c r="T63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U63" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q63" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S63" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V63" t="s">
+        <v>58</v>
+      </c>
+      <c r="W63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="9"/>
       <c r="J64" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="9"/>
       <c r="N64" s="3"/>
-      <c r="P64" s="2" t="s">
+      <c r="T64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U64" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q64" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S64" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V64" t="s">
+        <v>58</v>
+      </c>
+      <c r="W64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="9"/>
       <c r="J65" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="9"/>
       <c r="N65" s="3"/>
-      <c r="P65" s="2" t="s">
+      <c r="T65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U65" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q65" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R65" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S65" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-    </row>
-    <row r="66" spans="1:21" ht="50" x14ac:dyDescent="0.35">
+      <c r="V65" t="s">
+        <v>58</v>
+      </c>
+      <c r="W65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="9"/>
       <c r="N66" s="3"/>
-      <c r="P66" s="2" t="s">
+      <c r="T66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U66" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q66" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R66" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V66" t="s">
+        <v>58</v>
+      </c>
+      <c r="W66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="9"/>
       <c r="J67" s="12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K67" s="3"/>
-      <c r="L67" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="M67" s="9"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="N67" s="3"/>
-      <c r="O67" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="P67" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U67" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="1:21" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="V67" t="s">
+        <v>43</v>
+      </c>
+      <c r="W67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" ht="285" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K68" s="3"/>
-      <c r="L68" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="M68" s="9"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="N68" s="3"/>
       <c r="P68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-    </row>
-    <row r="69" spans="1:21" ht="62.5" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+      <c r="S68" s="1"/>
+      <c r="T68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V68" t="s">
+        <v>201</v>
+      </c>
+      <c r="W68" s="21" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" ht="200.25" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K69" s="3"/>
-      <c r="L69" s="3" t="s">
-        <v>396</v>
-      </c>
+      <c r="L69" s="3"/>
       <c r="M69" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="N69" s="3"/>
       <c r="P69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-    </row>
-    <row r="70" spans="1:21" ht="322.5" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U69" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V69" t="s">
+        <v>58</v>
+      </c>
+      <c r="W69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K70" s="3"/>
-      <c r="L70" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="M70" s="9"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="9" t="s">
+        <v>394</v>
+      </c>
       <c r="N70" s="3"/>
       <c r="P70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S70" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-    </row>
-    <row r="71" spans="1:21" ht="50" x14ac:dyDescent="0.35">
+      <c r="S70" s="1"/>
+      <c r="T70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V70" t="s">
+        <v>201</v>
+      </c>
+      <c r="W70" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="X70" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="9"/>
       <c r="N71" s="3"/>
-      <c r="P71" s="2" t="s">
+      <c r="T71" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U71" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q71" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-    </row>
-    <row r="72" spans="1:21" ht="50" x14ac:dyDescent="0.35">
+      <c r="V71" t="s">
+        <v>58</v>
+      </c>
+      <c r="W71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="9"/>
       <c r="N72" s="3"/>
-      <c r="P72" s="2" t="s">
+      <c r="T72" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U72" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q72" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-    </row>
-    <row r="73" spans="1:21" ht="137.5" x14ac:dyDescent="0.35">
+      <c r="V72" t="s">
+        <v>58</v>
+      </c>
+      <c r="W72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="9"/>
       <c r="N73" s="3"/>
-      <c r="P73" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T73" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="U73" s="3"/>
-    </row>
-    <row r="74" spans="1:21" ht="37.5" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V73" t="s">
+        <v>58</v>
+      </c>
+      <c r="W73" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="9"/>
       <c r="N74" s="3"/>
-      <c r="P74" s="2" t="s">
+      <c r="T74" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U74" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q74" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-    </row>
-    <row r="75" spans="1:21" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="V74" t="s">
+        <v>58</v>
+      </c>
+      <c r="W74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="9"/>
       <c r="N75" s="3"/>
-      <c r="P75" s="2" t="s">
+      <c r="T75" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U75" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q75" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V75" t="s">
+        <v>58</v>
+      </c>
+      <c r="W75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="9"/>
       <c r="J76" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="9"/>
       <c r="N76" s="3"/>
-      <c r="P76" s="2" t="s">
+      <c r="T76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U76" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q76" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-    </row>
-    <row r="77" spans="1:21" ht="75" x14ac:dyDescent="0.35">
+      <c r="V76" t="s">
+        <v>58</v>
+      </c>
+      <c r="W76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="9"/>
       <c r="N77" s="3"/>
-      <c r="P77" s="2" t="s">
+      <c r="T77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U77" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q77" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-    </row>
-    <row r="78" spans="1:21" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="V77" t="s">
+        <v>58</v>
+      </c>
+      <c r="W77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="9"/>
       <c r="N78" s="3"/>
-      <c r="P78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-    </row>
-    <row r="79" spans="1:21" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="T78" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V78" t="s">
+        <v>58</v>
+      </c>
+      <c r="W78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" ht="171.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K79" s="3"/>
-      <c r="L79" s="3" t="s">
-        <v>402</v>
-      </c>
+      <c r="L79" s="3"/>
       <c r="M79" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="N79" s="3"/>
       <c r="P79" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U79" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R79" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S79" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-    </row>
-    <row r="80" spans="1:21" ht="140" x14ac:dyDescent="0.35">
+      <c r="V79" t="s">
+        <v>43</v>
+      </c>
+      <c r="W79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K80" s="3"/>
-      <c r="L80" s="3" t="s">
-        <v>405</v>
-      </c>
+      <c r="L80" s="3"/>
       <c r="M80" s="9" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="N80" s="3"/>
-      <c r="O80" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="P80" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>204</v>
+        <v>423</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-    </row>
-    <row r="81" spans="1:21" ht="25" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V80" t="s">
+        <v>201</v>
+      </c>
+      <c r="W80" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="X80" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="9"/>
       <c r="N81" s="3"/>
-      <c r="P81" s="2" t="s">
+      <c r="T81" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U81" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q81" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R81" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-    </row>
-    <row r="82" spans="1:21" ht="100" x14ac:dyDescent="0.35">
+      <c r="V81" t="s">
+        <v>58</v>
+      </c>
+      <c r="W81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" ht="357" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K82" s="3"/>
-      <c r="L82" s="3" t="s">
-        <v>408</v>
-      </c>
+      <c r="L82" s="3"/>
       <c r="M82" s="9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="N82" s="3"/>
       <c r="P82" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q82" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="R82" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V82" t="s">
+        <v>58</v>
+      </c>
+      <c r="W82" t="s">
+        <v>58</v>
+      </c>
+      <c r="X82" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z82" s="21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="9"/>
       <c r="J83" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="9"/>
       <c r="N83" s="3"/>
-      <c r="P83" s="2" t="s">
+      <c r="T83" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U83" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q83" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V83" t="s">
+        <v>58</v>
+      </c>
+      <c r="W83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="9"/>
       <c r="J84" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="9"/>
       <c r="N84" s="3"/>
-      <c r="P84" s="2" t="s">
+      <c r="T84" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U84" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q84" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S84" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
+      <c r="V84" t="s">
+        <v>58</v>
+      </c>
+      <c r="W84" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U84" xr:uid="{E2AE202E-3036-4C4F-A2B8-1E3109A6638C}">

--- a/data_processing_elements-CHS.xlsx
+++ b/data_processing_elements-CHS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6988A27-236F-40AF-B0D6-BF83F70043F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9203C2AC-4320-4EB4-84ED-A6180A9814C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="469">
   <si>
     <t>index</t>
   </si>
@@ -1522,9 +1522,6 @@
   </si>
   <si>
     <t>Birth year: full four digits year. Birth month: number of month in the calendar, e.g. 1 for january. Birthday: date of birth, e.g. 1 the first day in the month. Examination date: datemonthyear</t>
-  </si>
-  <si>
-    <t>recode(0=0; 1=NA; 2=NA; 3=NA; 4=3; ELSE=NA)</t>
   </si>
   <si>
     <t>recoded cat 4 was not included</t>
@@ -1698,6 +1695,13 @@
   </si>
   <si>
     <t>format(as.Date(us, format = "%d/%m/%Y"), "%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>recode(0=0; 1=1; 2=1; 3=2; 4=3; ELSE=NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The years of education are years of education post primary school, thus I would suggest to code our category of 1-3 years education as 1 in your coding and &gt;3 years education as 2 in your coding.
+</t>
   </si>
 </sst>
 </file>
@@ -1810,7 +1814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1865,6 +1869,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2209,10 +2216,10 @@
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2435,7 @@
         <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X3" t="s">
         <v>419</v>
@@ -2543,7 +2550,7 @@
         <v>32</v>
       </c>
       <c r="W5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Y5" t="s">
         <v>426</v>
@@ -2552,7 +2559,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="171.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2603,19 +2610,22 @@
         <v>38</v>
       </c>
       <c r="W6" t="s">
+        <v>467</v>
+      </c>
+      <c r="X6" t="s">
         <v>428</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>429</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>430</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>431</v>
       </c>
-      <c r="AB6" t="s">
-        <v>432</v>
+      <c r="AC6" s="22" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="171.75" x14ac:dyDescent="0.25">
@@ -2670,16 +2680,16 @@
         <v>58</v>
       </c>
       <c r="X7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y7" t="s">
         <v>300</v>
       </c>
       <c r="AA7" t="s">
+        <v>433</v>
+      </c>
+      <c r="AB7" t="s">
         <v>434</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
@@ -2726,16 +2736,16 @@
         <v>58</v>
       </c>
       <c r="X8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Y8" t="s">
         <v>301</v>
       </c>
       <c r="AA8" t="s">
+        <v>436</v>
+      </c>
+      <c r="AB8" t="s">
         <v>437</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
@@ -2866,13 +2876,13 @@
         <v>58</v>
       </c>
       <c r="X11" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Y11" s="21" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="345" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2916,7 +2926,7 @@
         <v>58</v>
       </c>
       <c r="X12" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="114.75" x14ac:dyDescent="0.25">
@@ -2970,7 +2980,7 @@
         <v>58</v>
       </c>
       <c r="X13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="114.75" x14ac:dyDescent="0.25">
@@ -3071,10 +3081,10 @@
         <v>307</v>
       </c>
       <c r="AA15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3188,10 +3198,10 @@
         <v>312</v>
       </c>
       <c r="AA17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AB17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -3305,10 +3315,10 @@
         <v>312</v>
       </c>
       <c r="AA19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AB19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -3813,7 +3823,7 @@
         <v>331</v>
       </c>
       <c r="X29" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -3868,10 +3878,10 @@
         <v>334</v>
       </c>
       <c r="AA30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -4022,16 +4032,16 @@
         <v>43</v>
       </c>
       <c r="X33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y33" t="s">
         <v>340</v>
       </c>
       <c r="AA33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AB33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
@@ -4342,7 +4352,7 @@
         <v>354</v>
       </c>
       <c r="X39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -4441,7 +4451,7 @@
         <v>354</v>
       </c>
       <c r="X41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4516,7 +4526,7 @@
         <v>357</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="9"/>
@@ -4525,11 +4535,11 @@
         <v>418</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R43" s="16"/>
       <c r="S43" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>24</v>
@@ -4541,16 +4551,16 @@
         <v>32</v>
       </c>
       <c r="W43" t="s">
+        <v>450</v>
+      </c>
+      <c r="X43" t="s">
         <v>451</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="Y43" s="21" t="s">
+      <c r="AA43" t="s">
         <v>453</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="225" x14ac:dyDescent="0.25">
@@ -4575,13 +4585,13 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>358</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="9" t="s">
@@ -4683,7 +4693,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>362</v>
@@ -4902,7 +4912,7 @@
         <v>364</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>24</v>
@@ -5268,7 +5278,7 @@
         <v>201</v>
       </c>
       <c r="W57" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
@@ -5752,7 +5762,7 @@
         <v>201</v>
       </c>
       <c r="W68" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="200.25" x14ac:dyDescent="0.25">
@@ -5854,10 +5864,10 @@
         <v>201</v>
       </c>
       <c r="W70" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="X70" t="s">
         <v>460</v>
-      </c>
-      <c r="X70" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="51" x14ac:dyDescent="0.25">
@@ -5995,10 +6005,10 @@
         <v>395</v>
       </c>
       <c r="AA73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AB73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
@@ -6328,7 +6338,7 @@
         <v>402</v>
       </c>
       <c r="X80" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
@@ -6427,10 +6437,10 @@
         <v>58</v>
       </c>
       <c r="X82" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z82" s="21" t="s">
         <v>464</v>
-      </c>
-      <c r="Z82" s="21" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">

--- a/data_processing_elements-CHS.xlsx
+++ b/data_processing_elements-CHS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9203C2AC-4320-4EB4-84ED-A6180A9814C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF67B7B-8AA7-4B1E-AB33-ED96948ACB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -962,9 +962,6 @@
     <t>CHS</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Id number in CCHS5</t>
   </si>
   <si>
@@ -1702,6 +1699,9 @@
   <si>
     <t xml:space="preserve">The years of education are years of education post primary school, thus I would suggest to code our category of 1-3 years education as 1 in your coding and &gt;3 years education as 2 in your coding.
 </t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1871,9 +1871,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1897,7 +1894,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2216,13 +2213,13 @@
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="2" customWidth="1"/>
@@ -2240,13 +2237,15 @@
     <col min="14" max="14" width="7.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="21.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="36.5703125" style="2" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" style="2" customWidth="1"/>
     <col min="19" max="19" width="37.42578125" style="2" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="2"/>
+    <col min="20" max="20" width="11.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="2" customWidth="1"/>
     <col min="22" max="22" width="29.140625" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" customWidth="1"/>
+    <col min="23" max="23" width="81.42578125" customWidth="1"/>
     <col min="24" max="24" width="26.28515625" customWidth="1"/>
+    <col min="29" max="29" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -2284,19 +2283,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="17" t="s">
         <v>410</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>411</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>12</v>
@@ -2320,25 +2319,25 @@
         <v>18</v>
       </c>
       <c r="X1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Y1" t="s">
         <v>19</v>
       </c>
       <c r="Z1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA1" t="s">
         <v>413</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>414</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>415</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>416</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2364,16 +2363,16 @@
       <c r="H2" s="3"/>
       <c r="I2" s="9"/>
       <c r="J2" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="9"/>
       <c r="N2" s="3"/>
       <c r="P2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>24</v>
@@ -2385,7 +2384,7 @@
         <v>26</v>
       </c>
       <c r="W2" t="s">
-        <v>286</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -2413,16 +2412,16 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="9"/>
       <c r="N3" s="3"/>
       <c r="P3" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="3" t="s">
@@ -2435,19 +2434,19 @@
         <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="X3" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y3" t="s">
         <v>419</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>420</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>421</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -2475,7 +2474,7 @@
         <v>37</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>34</v>
@@ -2484,10 +2483,10 @@
       <c r="M4" s="9"/>
       <c r="N4" s="3"/>
       <c r="P4" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>24</v>
@@ -2499,7 +2498,7 @@
         <v>38</v>
       </c>
       <c r="W4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2527,16 +2526,16 @@
       <c r="H5" s="3"/>
       <c r="I5" s="9"/>
       <c r="J5" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>424</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>425</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="9"/>
       <c r="N5" s="3"/>
       <c r="P5" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
@@ -2550,16 +2549,16 @@
         <v>32</v>
       </c>
       <c r="W5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Y5" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA5" t="s">
         <v>426</v>
       </c>
-      <c r="AA5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:30" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2584,21 +2583,21 @@
         <v>47</v>
       </c>
       <c r="J6" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N6" s="3"/>
       <c r="P6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>24</v>
@@ -2610,25 +2609,25 @@
         <v>38</v>
       </c>
       <c r="W6" t="s">
+        <v>466</v>
+      </c>
+      <c r="X6" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC6" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="X6" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>429</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>430</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>431</v>
-      </c>
-      <c r="AC6" s="22" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="171.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:30" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2653,19 +2652,19 @@
         <v>52</v>
       </c>
       <c r="J7" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="9"/>
       <c r="N7" s="3"/>
       <c r="P7" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T7" s="15" t="s">
         <v>58</v>
@@ -2680,16 +2679,16 @@
         <v>58</v>
       </c>
       <c r="X7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA7" t="s">
         <v>432</v>
       </c>
-      <c r="Y7" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>433</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
@@ -2736,16 +2735,16 @@
         <v>58</v>
       </c>
       <c r="X8" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA8" t="s">
         <v>435</v>
       </c>
-      <c r="Y8" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>436</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
@@ -2834,7 +2833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2876,10 +2875,10 @@
         <v>58</v>
       </c>
       <c r="X11" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Y11" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="135" x14ac:dyDescent="0.25">
@@ -2926,10 +2925,10 @@
         <v>58</v>
       </c>
       <c r="X12" s="21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="114.75" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2954,18 +2953,18 @@
         <v>78</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>58</v>
@@ -2980,10 +2979,10 @@
         <v>58</v>
       </c>
       <c r="X13" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="114.75" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3008,18 +3007,18 @@
         <v>82</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>24</v>
@@ -3031,7 +3030,7 @@
         <v>38</v>
       </c>
       <c r="W14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
@@ -3072,19 +3071,19 @@
         <v>25</v>
       </c>
       <c r="V15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W15">
         <v>2</v>
       </c>
       <c r="Y15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AB15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3112,18 +3111,18 @@
       <c r="H16" s="3"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N16" s="3"/>
       <c r="P16" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>88</v>
@@ -3166,18 +3165,18 @@
         <v>91</v>
       </c>
       <c r="J17" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N17" s="3"/>
       <c r="P17" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>88</v>
@@ -3192,16 +3191,16 @@
         <v>32</v>
       </c>
       <c r="W17" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y17" t="s">
         <v>311</v>
       </c>
-      <c r="Y17" t="s">
-        <v>312</v>
-      </c>
       <c r="AA17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -3229,18 +3228,18 @@
       <c r="H18" s="3"/>
       <c r="I18" s="9"/>
       <c r="J18" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N18" s="3"/>
       <c r="P18" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>94</v>
@@ -3283,18 +3282,18 @@
         <v>91</v>
       </c>
       <c r="J19" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N19" s="3"/>
       <c r="P19" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>94</v>
@@ -3309,16 +3308,16 @@
         <v>32</v>
       </c>
       <c r="W19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -3346,16 +3345,16 @@
       <c r="H20" s="3"/>
       <c r="I20" s="9"/>
       <c r="J20" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="9"/>
       <c r="N20" s="3"/>
       <c r="P20" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>99</v>
@@ -3398,18 +3397,18 @@
       <c r="H21" s="3"/>
       <c r="I21" s="9"/>
       <c r="J21" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N21" s="3"/>
       <c r="P21" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>88</v>
@@ -3452,18 +3451,18 @@
         <v>91</v>
       </c>
       <c r="J22" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N22" s="3"/>
       <c r="P22" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>88</v>
@@ -3478,7 +3477,7 @@
         <v>32</v>
       </c>
       <c r="W22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -3592,18 +3591,18 @@
       <c r="H25" s="3"/>
       <c r="I25" s="9"/>
       <c r="J25" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N25" s="3"/>
       <c r="P25" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>113</v>
@@ -3621,7 +3620,7 @@
         <v>32</v>
       </c>
       <c r="W25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="42.75" x14ac:dyDescent="0.25">
@@ -3649,18 +3648,18 @@
       <c r="H26" s="3"/>
       <c r="I26" s="9"/>
       <c r="J26" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N26" s="3"/>
       <c r="P26" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>113</v>
@@ -3678,7 +3677,7 @@
         <v>32</v>
       </c>
       <c r="W26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -3769,7 +3768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="228.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="129" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3794,21 +3793,21 @@
         <v>125</v>
       </c>
       <c r="J29" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N29" s="3"/>
       <c r="P29" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -3820,10 +3819,10 @@
         <v>38</v>
       </c>
       <c r="W29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X29" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -3851,16 +3850,16 @@
       <c r="H30" s="3"/>
       <c r="I30" s="9"/>
       <c r="J30" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="9"/>
       <c r="N30" s="3"/>
       <c r="P30" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T30" s="15" t="s">
         <v>24</v>
@@ -3875,13 +3874,13 @@
         <v>43</v>
       </c>
       <c r="Y30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AA30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AB30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -3953,19 +3952,19 @@
       <c r="H32" s="3"/>
       <c r="I32" s="9"/>
       <c r="J32" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="9"/>
       <c r="N32" s="3"/>
       <c r="P32" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>24</v>
@@ -4005,19 +4004,19 @@
       <c r="H33" s="3"/>
       <c r="I33" s="9"/>
       <c r="J33" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="9"/>
       <c r="N33" s="3"/>
       <c r="P33" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T33" s="15" t="s">
         <v>24</v>
@@ -4032,16 +4031,16 @@
         <v>43</v>
       </c>
       <c r="X33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Y33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AA33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
@@ -4069,19 +4068,19 @@
       <c r="H34" s="3"/>
       <c r="I34" s="9"/>
       <c r="J34" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="9"/>
       <c r="N34" s="3"/>
       <c r="P34" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>24</v>
@@ -4121,20 +4120,20 @@
       <c r="H35" s="3"/>
       <c r="I35" s="9"/>
       <c r="J35" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>344</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="9"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>284</v>
@@ -4149,7 +4148,7 @@
         <v>32</v>
       </c>
       <c r="W35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
@@ -4177,19 +4176,19 @@
       <c r="H36" s="3"/>
       <c r="I36" s="9"/>
       <c r="J36" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="9"/>
       <c r="N36" s="3"/>
       <c r="P36" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>24</v>
@@ -4229,19 +4228,19 @@
       <c r="H37" s="3"/>
       <c r="I37" s="9"/>
       <c r="J37" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="9"/>
       <c r="N37" s="3"/>
       <c r="P37" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>24</v>
@@ -4300,7 +4299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="228.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -4325,19 +4324,19 @@
         <v>154</v>
       </c>
       <c r="J39" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="9"/>
       <c r="N39" s="3"/>
       <c r="P39" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>24</v>
@@ -4349,10 +4348,10 @@
         <v>38</v>
       </c>
       <c r="W39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="X39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -4399,7 +4398,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="228.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -4424,19 +4423,19 @@
         <v>154</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N41" s="3"/>
       <c r="P41" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>24</v>
@@ -4448,10 +4447,10 @@
         <v>38</v>
       </c>
       <c r="W41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="X41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4523,23 +4522,23 @@
       <c r="H43" s="3"/>
       <c r="I43" s="9"/>
       <c r="J43" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="9"/>
       <c r="N43" s="3"/>
       <c r="P43" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="R43" s="16"/>
       <c r="S43" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>24</v>
@@ -4551,19 +4550,19 @@
         <v>32</v>
       </c>
       <c r="W43" t="s">
+        <v>449</v>
+      </c>
+      <c r="X43" t="s">
         <v>450</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="Y43" s="21" t="s">
+      <c r="AA43" t="s">
         <v>452</v>
       </c>
-      <c r="AA43" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4585,24 +4584,24 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N44" s="3"/>
       <c r="P44" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="3" t="s">
@@ -4615,10 +4614,10 @@
         <v>201</v>
       </c>
       <c r="W44" s="21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4643,19 +4642,19 @@
         <v>173</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N45" s="3"/>
       <c r="P45" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="3" t="s">
@@ -4668,7 +4667,7 @@
         <v>201</v>
       </c>
       <c r="W45" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="29.25" x14ac:dyDescent="0.25">
@@ -4693,23 +4692,23 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T46" s="2" t="s">
         <v>58</v>
@@ -4749,16 +4748,16 @@
       <c r="H47" s="3"/>
       <c r="I47" s="9"/>
       <c r="J47" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N47" s="3"/>
       <c r="P47" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>24</v>
@@ -4770,7 +4769,7 @@
         <v>32</v>
       </c>
       <c r="W47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="51" x14ac:dyDescent="0.25">
@@ -4842,22 +4841,22 @@
         <v>185</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N49" s="3"/>
       <c r="P49" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>24</v>
@@ -4869,7 +4868,7 @@
         <v>201</v>
       </c>
       <c r="W49" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="45" x14ac:dyDescent="0.25">
@@ -4897,22 +4896,22 @@
         <v>185</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N50" s="3"/>
       <c r="P50" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>24</v>
@@ -4924,7 +4923,7 @@
         <v>201</v>
       </c>
       <c r="W50" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="29.25" x14ac:dyDescent="0.25">
@@ -4952,23 +4951,23 @@
         <v>185</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>24</v>
@@ -5052,19 +5051,19 @@
         <v>185</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N53" s="3"/>
       <c r="P53" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>24</v>
@@ -5148,19 +5147,19 @@
         <v>185</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N55" s="3"/>
       <c r="P55" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>24</v>
@@ -5200,19 +5199,19 @@
         <v>185</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N56" s="3"/>
       <c r="P56" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="3" t="s">
@@ -5225,7 +5224,7 @@
         <v>201</v>
       </c>
       <c r="W56" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -5253,19 +5252,19 @@
         <v>185</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N57" s="3"/>
       <c r="P57" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="3" t="s">
@@ -5278,7 +5277,7 @@
         <v>201</v>
       </c>
       <c r="W57" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
@@ -5688,19 +5687,19 @@
       <c r="H67" s="3"/>
       <c r="I67" s="9"/>
       <c r="J67" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N67" s="3"/>
       <c r="P67" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>24</v>
@@ -5715,7 +5714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="285" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -5740,16 +5739,16 @@
         <v>231</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N68" s="3"/>
       <c r="P68" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S68" s="1"/>
       <c r="T68" s="3" t="s">
@@ -5762,10 +5761,10 @@
         <v>201</v>
       </c>
       <c r="W68" s="21" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" ht="200.25" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" ht="72" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -5790,19 +5789,19 @@
         <v>234</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N69" s="3"/>
       <c r="P69" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>58</v>
@@ -5817,7 +5816,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="375" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -5842,16 +5841,16 @@
         <v>237</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N70" s="3"/>
       <c r="P70" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S70" s="1"/>
       <c r="T70" s="3" t="s">
@@ -5864,10 +5863,10 @@
         <v>201</v>
       </c>
       <c r="W70" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="X70" t="s">
         <v>459</v>
-      </c>
-      <c r="X70" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="51" x14ac:dyDescent="0.25">
@@ -6002,13 +6001,13 @@
         <v>58</v>
       </c>
       <c r="Y73" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AA73" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AB73" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
@@ -6231,7 +6230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="171.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -6256,19 +6255,19 @@
         <v>267</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N79" s="3"/>
       <c r="P79" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>24</v>
@@ -6308,22 +6307,22 @@
         <v>185</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N80" s="3"/>
       <c r="P80" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T80" s="3" t="s">
         <v>24</v>
@@ -6335,10 +6334,10 @@
         <v>201</v>
       </c>
       <c r="W80" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X80" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
@@ -6385,7 +6384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="357" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="315" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -6415,14 +6414,14 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N82" s="3"/>
       <c r="P82" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>58</v>
@@ -6437,10 +6436,10 @@
         <v>58</v>
       </c>
       <c r="X82" t="s">
+        <v>462</v>
+      </c>
+      <c r="Z82" s="21" t="s">
         <v>463</v>
-      </c>
-      <c r="Z82" s="21" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">

--- a/data_processing_elements-CHS.xlsx
+++ b/data_processing_elements-CHS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF67B7B-8AA7-4B1E-AB33-ED96948ACB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB71A65-102C-41BF-8E4A-6CF99D76A569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="468">
   <si>
     <t>index</t>
   </si>
@@ -1503,18 +1503,6 @@
     <t>categorical</t>
   </si>
   <si>
-    <t>Faar;
-Fmd;
-Fdag;
-us</t>
-  </si>
-  <si>
-    <t>birth year;
-birth month;
-birth day;
-examination date</t>
-  </si>
-  <si>
     <t>Please confirm the completion date format</t>
   </si>
   <si>
@@ -1623,12 +1611,6 @@
   </si>
   <si>
     <t>osteoporosis</t>
-  </si>
-  <si>
-    <t>case_when(
-m12 == 1|
-m11 == 1;
-ELSE ~ NA_integer_)</t>
   </si>
   <si>
     <t>case_when( 
@@ -1644,64 +1626,69 @@
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
+    <t>check when both input value = na</t>
+  </si>
+  <si>
+    <t>computer time use are not specified to weekdays nor domain, thus it is all use of computers participants are asked to report. One reason for the double vaiable could be that the participants are asked to report time use in hours and minutes</t>
+  </si>
+  <si>
+    <t>not an exhaustive list of sports, can't say no, or do we say no with a comment?</t>
+  </si>
+  <si>
+    <t>inactive includes physical activity less than 2 hours/week (Sub91), do we still populate and leave a comment, but 2 hours/week i a lot to be coded as no PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or 1=NA?
+questionnaire also has:
+2 = Light physical activity from 2 - 4 hours per week
+e.g. walks, bike rides, light gardening, light exercise gymnastics
+</t>
+  </si>
+  <si>
+    <t>format(as.Date(us, format = "%d/%m/%Y"), "%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>recode(0=0; 1=1; 2=1; 3=2; 4=3; ELSE=NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The years of education are years of education post primary school, thus I would suggest to code our category of 1-3 years education as 1 in your coding and &gt;3 years education as 2 in your coding.
+</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>K0ALDER5</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
     <t>case_when(
 is.na(Sub86a) &amp; is.na(Sub86b) ~ NA_integer_;
 rowSums(mutate(.,
 temp_Sub86a = Sub86a,
 temp_Sub86b = Sub86b/60) %&gt;%
-select(temp_Sub86a, temp_Sub86b), 
-na.rm = TRUE) &lt;= 1 ~ 1L;
+select(temp_Sub86a, temp_Sub86b), na.rm = TRUE) &lt;= 1 ~ 1L;
 rowSums(mutate(.,
 temp_Sub86a = Sub86a,
 temp_Sub86b = Sub86b/60) %&gt;%
-select(temp_Sub86a, temp_Sub86b), 
-na.rm = TRUE) &lt;= 1 ~ 1L; &lt;= 3 &amp; 
+select(temp_Sub86a, temp_Sub86b), na.rm = TRUE)  &lt;= 3 &amp; 
 rowSums(mutate(.,
 temp_Sub86a = Sub86a,
 temp_Sub86b = Sub86b/60) %&gt;%
-select(temp_Sub86a, temp_Sub86b), 
-na.rm = TRUE) &lt;= 1 ~ 1L; &gt; 1 ~ 2L;
+select(temp_Sub86a, temp_Sub86b), na.rm = TRUE) &gt; 1 ~ 2L;
 rowSums(mutate(.,
 temp_Sub86a = Sub86a,
 temp_Sub86b = Sub86b/60) %&gt;%
-select(temp_Sub86a, temp_Sub86b), 
-na.rm = TRUE) &lt;= 1 ~ 1L; &gt; 3 ~ 3L;
+select(temp_Sub86a, temp_Sub86b), na.rm = TRUE) &gt; 3 ~ 3L;
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>check when both input value = na</t>
-  </si>
-  <si>
-    <t>computer time use are not specified to weekdays nor domain, thus it is all use of computers participants are asked to report. One reason for the double vaiable could be that the participants are asked to report time use in hours and minutes</t>
-  </si>
-  <si>
-    <t>not an exhaustive list of sports, can't say no, or do we say no with a comment?</t>
-  </si>
-  <si>
-    <t>inactive includes physical activity less than 2 hours/week (Sub91), do we still populate and leave a comment, but 2 hours/week i a lot to be coded as no PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or 1=NA?
-questionnaire also has:
-2 = Light physical activity from 2 - 4 hours per week
-e.g. walks, bike rides, light gardening, light exercise gymnastics
-</t>
-  </si>
-  <si>
-    <t>floor(as.numeric(difftime(format(as.Date(us, format = "%d/%m/%Y"), "%Y-%m-%d"), as.Date(paste0(Faar, "-", Fmd, "-", Fdag), format = "%Y-%m-%d"), units = "days"))/365.25)</t>
-  </si>
-  <si>
-    <t>format(as.Date(us, format = "%d/%m/%Y"), "%Y-%m-%d")</t>
-  </si>
-  <si>
-    <t>recode(0=0; 1=1; 2=1; 3=2; 4=3; ELSE=NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The years of education are years of education post primary school, thus I would suggest to code our category of 1-3 years education as 1 in your coding and &gt;3 years education as 2 in your coding.
-</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t>case_when(
+m12 == 1|m11 == 1 ~ 1L;
+m12 == 0 &amp;m11 == 0 ~ 0L;
+ELSE ~ NA_integer_)</t>
   </si>
 </sst>
 </file>
@@ -2213,10 +2200,10 @@
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="W60" sqref="W60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,7 +2350,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="9"/>
       <c r="J2" s="12" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>286</v>
@@ -2384,7 +2371,7 @@
         <v>26</v>
       </c>
       <c r="W2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -2434,7 +2421,7 @@
         <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="X3" t="s">
         <v>418</v>
@@ -2501,7 +2488,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2526,16 +2513,16 @@
       <c r="H5" s="3"/>
       <c r="I5" s="9"/>
       <c r="J5" s="12" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="9"/>
       <c r="N5" s="3"/>
       <c r="P5" s="19" t="s">
-        <v>417</v>
+        <v>36</v>
       </c>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
@@ -2543,19 +2530,19 @@
         <v>24</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="W5" t="s">
-        <v>464</v>
+        <v>43</v>
       </c>
       <c r="Y5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AA5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="140.25" x14ac:dyDescent="0.25">
@@ -2609,22 +2596,22 @@
         <v>38</v>
       </c>
       <c r="W6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="X6" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA6" t="s">
         <v>427</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AB6" t="s">
         <v>428</v>
       </c>
-      <c r="AA6" t="s">
-        <v>429</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>430</v>
-      </c>
       <c r="AC6" s="21" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="127.5" x14ac:dyDescent="0.25">
@@ -2679,16 +2666,16 @@
         <v>58</v>
       </c>
       <c r="X7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Y7" t="s">
         <v>299</v>
       </c>
       <c r="AA7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AB7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
@@ -2735,16 +2722,16 @@
         <v>58</v>
       </c>
       <c r="X8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Y8" t="s">
         <v>300</v>
       </c>
       <c r="AA8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AB8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
@@ -2875,7 +2862,7 @@
         <v>58</v>
       </c>
       <c r="X11" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Y11" s="21" t="s">
         <v>301</v>
@@ -2925,7 +2912,7 @@
         <v>58</v>
       </c>
       <c r="X12" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="57.75" x14ac:dyDescent="0.25">
@@ -2979,7 +2966,7 @@
         <v>58</v>
       </c>
       <c r="X13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="57.75" x14ac:dyDescent="0.25">
@@ -3080,10 +3067,10 @@
         <v>306</v>
       </c>
       <c r="AA15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AB15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3197,10 +3184,10 @@
         <v>311</v>
       </c>
       <c r="AA17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AB17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -3314,10 +3301,10 @@
         <v>311</v>
       </c>
       <c r="AA19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AB19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -3822,7 +3809,7 @@
         <v>330</v>
       </c>
       <c r="X29" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -3877,10 +3864,10 @@
         <v>333</v>
       </c>
       <c r="AA30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AB30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -4031,16 +4018,16 @@
         <v>43</v>
       </c>
       <c r="X33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Y33" t="s">
         <v>339</v>
       </c>
       <c r="AA33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AB33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
@@ -4351,7 +4338,7 @@
         <v>353</v>
       </c>
       <c r="X39" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -4450,7 +4437,7 @@
         <v>353</v>
       </c>
       <c r="X41" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4525,7 +4512,7 @@
         <v>356</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="9"/>
@@ -4534,11 +4521,11 @@
         <v>417</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="R43" s="16"/>
       <c r="S43" s="16" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>24</v>
@@ -4550,16 +4537,16 @@
         <v>32</v>
       </c>
       <c r="W43" t="s">
+        <v>447</v>
+      </c>
+      <c r="X43" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y43" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="X43" t="s">
+      <c r="AA43" t="s">
         <v>450</v>
-      </c>
-      <c r="Y43" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="90" x14ac:dyDescent="0.25">
@@ -4584,13 +4571,13 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>357</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="9" t="s">
@@ -4692,7 +4679,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>361</v>
@@ -4911,7 +4898,7 @@
         <v>363</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>24</v>
@@ -5277,7 +5264,7 @@
         <v>201</v>
       </c>
       <c r="W57" s="21" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
@@ -5761,7 +5748,7 @@
         <v>201</v>
       </c>
       <c r="W68" s="21" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="72" x14ac:dyDescent="0.25">
@@ -5816,7 +5803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="375" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="315" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -5863,10 +5850,10 @@
         <v>201</v>
       </c>
       <c r="W70" s="21" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="X70" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="51" x14ac:dyDescent="0.25">
@@ -6004,10 +5991,10 @@
         <v>394</v>
       </c>
       <c r="AA73" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AB73" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
@@ -6337,7 +6324,7 @@
         <v>401</v>
       </c>
       <c r="X80" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
@@ -6436,10 +6423,10 @@
         <v>58</v>
       </c>
       <c r="X82" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Z82" s="21" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
@@ -6535,5 +6522,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>